--- a/patches/Juno60.xlsx
+++ b/patches/Juno60.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\GitHub\junox\patches\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C73468F-9132-4C34-9285-6EBF3A1B5811}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="16428" yWindow="-5220" windowWidth="12900" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Bank A (from service manual)" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -94,9 +103,6 @@
     <t>Chorus</t>
   </si>
   <si>
-    <t>Strings I</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -109,93 +115,39 @@
     <t>E</t>
   </si>
   <si>
-    <t>Strings II</t>
-  </si>
-  <si>
-    <t>Strings III</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
-    <t>Organ I</t>
-  </si>
-  <si>
     <t>G</t>
   </si>
   <si>
-    <t>Organ II</t>
-  </si>
-  <si>
-    <t>Organ III</t>
-  </si>
-  <si>
     <t>Brass</t>
   </si>
   <si>
     <t>Phase Brass</t>
   </si>
   <si>
-    <t>Piano I</t>
-  </si>
-  <si>
-    <t>Piano II</t>
-  </si>
-  <si>
     <t>Celesta</t>
   </si>
   <si>
     <t>Mellow Piano</t>
   </si>
   <si>
-    <t>Harpsichord I</t>
-  </si>
-  <si>
-    <t>Harpsicord II</t>
-  </si>
-  <si>
     <t>Guitar</t>
   </si>
   <si>
-    <t>Synthetiser Harp</t>
-  </si>
-  <si>
-    <t>Bass I</t>
-  </si>
-  <si>
-    <t>Bass II</t>
-  </si>
-  <si>
-    <t>Clavichord I</t>
-  </si>
-  <si>
-    <t>Clavichord II</t>
-  </si>
-  <si>
-    <t>Pizzicato Sound I</t>
-  </si>
-  <si>
-    <t>Pizzicato Sound II</t>
-  </si>
-  <si>
     <t>Xylophone</t>
   </si>
   <si>
     <t>Glockenspiel</t>
   </si>
   <si>
-    <t>Violin</t>
-  </si>
-  <si>
     <t>Trumpet</t>
   </si>
   <si>
     <t>Horn</t>
   </si>
   <si>
-    <t>Tube</t>
-  </si>
-  <si>
     <t>Flute</t>
   </si>
   <si>
@@ -217,143 +169,525 @@
     <t>Phase Combination</t>
   </si>
   <si>
-    <t>Reed I</t>
-  </si>
-  <si>
     <t>Popcorn</t>
   </si>
   <si>
-    <t>Reed II</t>
-  </si>
-  <si>
-    <t>Reed III</t>
-  </si>
-  <si>
     <t>PWM Chorus</t>
   </si>
   <si>
-    <t>Synthetiser Organ</t>
-  </si>
-  <si>
-    <t>Effect Sound</t>
-  </si>
-  <si>
     <t>I</t>
   </si>
   <si>
-    <t>Effect Sound II</t>
-  </si>
-  <si>
-    <t>Space Harm</t>
-  </si>
-  <si>
     <t>Funk</t>
   </si>
   <si>
-    <t>Space Sound I</t>
-  </si>
-  <si>
     <t>Mysterious Invention</t>
   </si>
   <si>
-    <t>Space Sound II</t>
-  </si>
-  <si>
-    <t>Percussive Sound I</t>
-  </si>
-  <si>
-    <t>Percussive Sound II</t>
-  </si>
-  <si>
     <t>Whistle</t>
   </si>
   <si>
-    <t>Effect Sound III</t>
-  </si>
-  <si>
     <t>UFO</t>
   </si>
   <si>
-    <t>Space Sound III</t>
-  </si>
-  <si>
     <t>Surf</t>
   </si>
   <si>
-    <t>Synthetiser Drums</t>
+    <t>Synthesizer Harp</t>
+  </si>
+  <si>
+    <t>Synthesizer Drum</t>
+  </si>
+  <si>
+    <t>Synthesizer Organ</t>
+  </si>
+  <si>
+    <t>Strings 1</t>
+  </si>
+  <si>
+    <t>Strings 2</t>
+  </si>
+  <si>
+    <t>Strings 3</t>
+  </si>
+  <si>
+    <t>Organ 1</t>
+  </si>
+  <si>
+    <t>Organ 2</t>
+  </si>
+  <si>
+    <t>Organ 3</t>
+  </si>
+  <si>
+    <t>Piano 1</t>
+  </si>
+  <si>
+    <t>Piano 2</t>
+  </si>
+  <si>
+    <t>Harpsichord 1</t>
+  </si>
+  <si>
+    <t>Harpsichord 2</t>
+  </si>
+  <si>
+    <t>Bass 1</t>
+  </si>
+  <si>
+    <t>Bass 2</t>
+  </si>
+  <si>
+    <t>Clavichord 1</t>
+  </si>
+  <si>
+    <t>Clavichord 2</t>
+  </si>
+  <si>
+    <t>Pizzicato Sound 1</t>
+  </si>
+  <si>
+    <t>Pizzicato Sound 2</t>
+  </si>
+  <si>
+    <t>Violine</t>
+  </si>
+  <si>
+    <t>Tuba</t>
+  </si>
+  <si>
+    <t>Reed 1</t>
+  </si>
+  <si>
+    <t>Reed 2</t>
+  </si>
+  <si>
+    <t>Reed 3</t>
+  </si>
+  <si>
+    <t>Effect Sound 1</t>
+  </si>
+  <si>
+    <t>Effect Sound 2</t>
+  </si>
+  <si>
+    <t>Space Harp</t>
+  </si>
+  <si>
+    <t>Space Sound 1</t>
+  </si>
+  <si>
+    <t>Space Sound 2</t>
+  </si>
+  <si>
+    <t>Percussive Sound 1</t>
+  </si>
+  <si>
+    <t>Percussive Sound 2</t>
+  </si>
+  <si>
+    <t>Effect Sound 3</t>
+  </si>
+  <si>
+    <t>Space Sound 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AA57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="9.29"/>
-    <col customWidth="1" min="4" max="4" width="10.43"/>
-    <col customWidth="1" min="5" max="5" width="8.43"/>
-    <col customWidth="1" min="6" max="6" width="9.71"/>
-    <col customWidth="1" min="7" max="7" width="10.71"/>
-    <col customWidth="1" min="8" max="8" width="14.43"/>
-    <col customWidth="1" min="9" max="9" width="10.71"/>
-    <col customWidth="1" min="10" max="10" width="9.43"/>
-    <col customWidth="1" min="11" max="11" width="11.0"/>
+    <col min="1" max="1" width="8" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -435,380 +769,380 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>11</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="1">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>7</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N2" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="O2" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <v>10</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="S2" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="T2" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="V2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W2" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="X2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="Z2" s="1">
         <v>4.5</v>
       </c>
       <c r="AA2" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="C3" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>7</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N3" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="O3" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
+        <v>10</v>
+      </c>
+      <c r="U3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R3" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="S3" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="T3" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="V3" s="1">
-        <v>-2.0</v>
+        <v>-2</v>
       </c>
       <c r="W3" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="X3" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="Z3" s="1">
         <v>4.5</v>
       </c>
       <c r="AA3" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="C4" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>10</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>5</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="L4" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N4" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="O4" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>10</v>
+      </c>
+      <c r="U4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R4" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="S4" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="T4" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="U4" s="1" t="s">
+      <c r="V4" s="1">
+        <v>-2</v>
+      </c>
+      <c r="W4" s="1">
+        <v>3</v>
+      </c>
+      <c r="X4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>14</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>5</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V4" s="1">
-        <v>-2.0</v>
-      </c>
-      <c r="W4" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="X4" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="Y4" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="Z4" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="AA4" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="I5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="M5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="P5" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R5" s="1">
         <v>4.5</v>
       </c>
       <c r="S5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T5" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="V5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="C6" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D6" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
         <v>5.5</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I6" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="M6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
         <v>3.5</v>
@@ -817,81 +1151,81 @@
         <v>5.5</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R6" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="S6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T6" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="V6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X6" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AA6" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>38</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>16</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="C7" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
         <v>5.5</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I7" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="M7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
         <v>3.5</v>
@@ -900,609 +1234,609 @@
         <v>5.5</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R7" s="1">
         <v>3.5</v>
       </c>
       <c r="S7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T7" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="V7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X7" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AA7" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>17</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C8" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D8" s="1">
         <v>6.5</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8" s="1">
         <v>1.5</v>
       </c>
       <c r="G8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R8" s="1">
         <v>8.5</v>
       </c>
       <c r="S8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T8" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V8" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="W8" s="1">
         <v>2.5</v>
       </c>
       <c r="X8" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="Y8" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="Z8" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AA8" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>18.0</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>18</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="C9" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I9" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L9" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="M9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="P9" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R9" s="1">
         <v>5.5</v>
       </c>
       <c r="S9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T9" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="V9" s="1">
-        <v>-1.0</v>
+        <v>-1</v>
       </c>
       <c r="W9" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="X9" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="Y9" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="Z9" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AA9" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <v>21.0</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>21</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="C10" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F10" s="1">
         <v>4.5</v>
       </c>
       <c r="G10" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I10" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R10" s="1">
+        <v>7</v>
+      </c>
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1">
+        <v>4</v>
+      </c>
+      <c r="U10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R10" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="S10" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="T10" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="V10" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="W10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X10" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="Y10" s="1">
         <v>1.5</v>
       </c>
       <c r="Z10" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AA10" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>22.0</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>22</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="C11" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I11" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="1">
         <v>4.5</v>
       </c>
       <c r="M11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
         <v>3.5</v>
       </c>
       <c r="P11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R11" s="1">
         <v>2.5</v>
       </c>
       <c r="S11" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="T11" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V11" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="W11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X11" s="1">
         <v>7.5</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
         <v>3.5</v>
       </c>
       <c r="AA11" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1">
-        <v>23.0</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>23</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C12" s="1">
         <v>3.5</v>
       </c>
       <c r="D12" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I12" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L12" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="M12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O12" s="1">
         <v>3.5</v>
       </c>
       <c r="P12" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="Q12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R12" s="1">
+        <v>0</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
+        <v>10</v>
+      </c>
+      <c r="U12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R12" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="S12" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="T12" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="V12" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="W12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X12" s="1">
         <v>6.5</v>
       </c>
       <c r="Y12" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="Z12" s="1">
         <v>5.5</v>
       </c>
       <c r="AA12" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1">
-        <v>24.0</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>44</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>24</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C13" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I13" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L13" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="M13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="P13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R13" s="1">
         <v>2.5</v>
       </c>
       <c r="S13" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="T13" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V13" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="W13" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="X13" s="1">
         <v>7.5</v>
       </c>
       <c r="Y13" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="Z13" s="1">
         <v>8.5</v>
       </c>
       <c r="AA13" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1">
-        <v>25.0</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>25</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="C14" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D14" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I14" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="M14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O14" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="P14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R14" s="1">
+        <v>5</v>
+      </c>
+      <c r="S14" s="1">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1">
+        <v>7</v>
+      </c>
+      <c r="U14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R14" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="S14" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="T14" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="V14" s="1">
-        <v>-1.0</v>
+        <v>-1</v>
       </c>
       <c r="W14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X14" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="Y14" s="1">
         <v>3.5</v>
@@ -1511,143 +1845,143 @@
         <v>2.5</v>
       </c>
       <c r="AA14" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1">
-        <v>26.0</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>26</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="C15" s="1">
         <v>5.5</v>
       </c>
       <c r="D15" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I15" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="1">
         <v>8.5</v>
       </c>
       <c r="M15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N15" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O15" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="P15" s="1">
         <v>2.5</v>
       </c>
       <c r="Q15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R15" s="1">
+        <v>3</v>
+      </c>
+      <c r="S15" s="1">
+        <v>0</v>
+      </c>
+      <c r="T15" s="1">
+        <v>10</v>
+      </c>
+      <c r="U15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R15" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="S15" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="T15" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="U15" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="V15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X15" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Y15" s="1">
         <v>1.5</v>
       </c>
       <c r="Z15" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AA15" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1">
-        <v>27.0</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>47</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>27</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="C16" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D16" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I16" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L16" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="M16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N16" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O16" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="P16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R16" s="1">
         <v>4.5</v>
@@ -1656,16 +1990,16 @@
         <v>1.5</v>
       </c>
       <c r="T16" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V16" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="W16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X16" s="1">
         <v>5.5</v>
@@ -1677,247 +2011,247 @@
         <v>6.5</v>
       </c>
       <c r="AA16" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1">
-        <v>28.0</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>48</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>28</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="C17" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D17" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J17" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L17" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="M17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O17" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="P17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R17" s="1">
+        <v>5</v>
+      </c>
+      <c r="S17" s="1">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1">
+        <v>8</v>
+      </c>
+      <c r="U17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R17" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="S17" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="T17" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="V17" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="W17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X17" s="1">
         <v>5.5</v>
       </c>
       <c r="Y17" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="Z17" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AA17" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1">
-        <v>31.0</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>49</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>31</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="C18" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D18" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G18" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I18" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J18" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O18" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="P18" s="1">
         <v>2.5</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R18" s="1">
         <v>3.5</v>
       </c>
       <c r="S18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="V18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X18" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="Y18" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Z18" s="1">
         <v>2.5</v>
       </c>
       <c r="AA18" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1">
-        <v>32.0</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>50</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>32</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="C19" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D19" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G19" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I19" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J19" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L19" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O19" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="P19" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R19" s="1">
         <v>4.5</v>
       </c>
       <c r="S19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T19" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="V19" s="1">
-        <v>-1.0</v>
+        <v>-1</v>
       </c>
       <c r="W19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X19" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="Y19" s="1">
         <v>3.5</v>
@@ -1926,81 +2260,81 @@
         <v>2.5</v>
       </c>
       <c r="AA19" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1">
-        <v>33.0</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>51</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>33</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="C20" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D20" s="1">
         <v>2.5</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F20" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G20" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I20" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="Q20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R20" s="1">
+        <v>8</v>
+      </c>
+      <c r="S20" s="1">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1">
+        <v>6</v>
+      </c>
+      <c r="U20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R20" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="S20" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="T20" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="V20" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="W20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X20" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Y20" s="1">
         <v>3.5</v>
@@ -2009,164 +2343,164 @@
         <v>1.5</v>
       </c>
       <c r="AA20" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1">
-        <v>34.0</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>52</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>34</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="C21" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G21" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I21" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L21" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="M21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N21" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O21" s="1">
         <v>5.5</v>
       </c>
       <c r="P21" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R21" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="S21" s="1">
         <v>2.5</v>
       </c>
       <c r="T21" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V21" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="W21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X21" s="1">
         <v>4.5</v>
       </c>
       <c r="Y21" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="Z21" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AA21" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1">
-        <v>35.0</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>53</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>35</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="C22" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D22" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G22" s="1">
         <v>3.5</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I22" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L22" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O22" s="1">
         <v>4.5</v>
       </c>
       <c r="P22" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="Q22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R22" s="1">
+        <v>3</v>
+      </c>
+      <c r="S22" s="1">
+        <v>3</v>
+      </c>
+      <c r="T22" s="1">
+        <v>10</v>
+      </c>
+      <c r="U22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R22" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="S22" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="T22" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="U22" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="V22" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="W22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X22" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="Y22" s="1">
         <v>3.5</v>
@@ -2175,347 +2509,347 @@
         <v>5.5</v>
       </c>
       <c r="AA22" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1">
-        <v>36.0</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>54</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>36</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="C23" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D23" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G23" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I23" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L23" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O23" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="P23" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="Q23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R23" s="1">
+        <v>3</v>
+      </c>
+      <c r="S23" s="1">
+        <v>0</v>
+      </c>
+      <c r="T23" s="1">
+        <v>10</v>
+      </c>
+      <c r="U23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R23" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="S23" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="T23" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="U23" s="1" t="s">
+      <c r="V23" s="1">
+        <v>1</v>
+      </c>
+      <c r="W23" s="1">
+        <v>0</v>
+      </c>
+      <c r="X23" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>37</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="1">
+        <v>5</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>5</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V23" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="W23" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X23" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="Y23" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="Z23" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="AA23" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1">
-        <v>37.0</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G24" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="I24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="M24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N24" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O24" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="P24" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Q24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R24" s="1">
+        <v>3</v>
+      </c>
+      <c r="S24" s="1">
+        <v>0</v>
+      </c>
+      <c r="T24" s="1">
+        <v>6</v>
+      </c>
+      <c r="U24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R24" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="S24" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="T24" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="U24" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="V24" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="W24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X24" s="1">
         <v>3.5</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>3.5</v>
       </c>
       <c r="AA24" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1">
-        <v>38.0</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>56</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>38</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C25" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I25" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N25" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O25" s="1">
         <v>4.5</v>
       </c>
       <c r="P25" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Q25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R25" s="1">
+        <v>3</v>
+      </c>
+      <c r="S25" s="1">
+        <v>0</v>
+      </c>
+      <c r="T25" s="1">
+        <v>6</v>
+      </c>
+      <c r="U25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R25" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="S25" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="T25" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="U25" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="V25" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="W25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X25" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="Y25" s="1">
         <v>2.5</v>
       </c>
       <c r="Z25" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AA25" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1">
-        <v>41.0</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>57</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>41</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="C26" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D26" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="G26" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="I26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J26" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N26" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O26" s="1">
         <v>6.5</v>
       </c>
       <c r="P26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R26" s="1">
+        <v>0</v>
+      </c>
+      <c r="S26" s="1">
+        <v>0</v>
+      </c>
+      <c r="T26" s="1">
+        <v>10</v>
+      </c>
+      <c r="U26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R26" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="S26" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="T26" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="U26" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="V26" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="W26" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="X26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="Z26" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AA26" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1">
-        <v>42.0</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>42</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="C27" s="1">
         <v>2.5</v>
@@ -2524,413 +2858,413 @@
         <v>6.5</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F27" s="1">
         <v>1.5</v>
       </c>
       <c r="G27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J27" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R27" s="1">
         <v>8.5</v>
       </c>
       <c r="S27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T27" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V27" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="W27" s="1">
         <v>2.5</v>
       </c>
       <c r="X27" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="Y27" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="Z27" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AA27" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1">
-        <v>43.0</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>59</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>43</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="C28" s="1">
         <v>2.5</v>
       </c>
       <c r="D28" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J28" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O28" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="P28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R28" s="1">
         <v>5.5</v>
       </c>
       <c r="S28" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="T28" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V28" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="W28" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="X28" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Y28" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="Z28" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AA28" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1">
-        <v>44.0</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>60</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>44</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="C29" s="1">
         <v>2.5</v>
       </c>
       <c r="D29" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F29" s="1">
         <v>1.5</v>
       </c>
       <c r="G29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J29" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O29" s="1">
         <v>1.5</v>
       </c>
       <c r="P29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R29" s="1">
+        <v>6</v>
+      </c>
+      <c r="S29" s="1">
+        <v>0</v>
+      </c>
+      <c r="T29" s="1">
+        <v>4</v>
+      </c>
+      <c r="U29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R29" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="S29" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="T29" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="U29" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="V29" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="W29" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="X29" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="Y29" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="Z29" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AA29" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1">
-        <v>45.0</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>61</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>45</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C30" s="1">
         <v>5.5</v>
       </c>
       <c r="D30" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J30" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M30" s="1">
         <v>1.5</v>
       </c>
       <c r="N30" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O30" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="P30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R30" s="1">
+        <v>0</v>
+      </c>
+      <c r="S30" s="1">
+        <v>2</v>
+      </c>
+      <c r="T30" s="1">
+        <v>6</v>
+      </c>
+      <c r="U30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R30" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="S30" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="T30" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="U30" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="V30" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="W30" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="X30" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="Y30" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Z30" s="1">
         <v>2.5</v>
       </c>
       <c r="AA30" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1">
-        <v>46.0</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>62</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>46</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C31" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D31" s="1">
         <v>6.5</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F31" s="1">
         <v>1.5</v>
       </c>
       <c r="G31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I31" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N31" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O31" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="P31" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R31" s="1">
         <v>2.5</v>
       </c>
       <c r="S31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T31" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V31" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="1">
         <v>2.5</v>
       </c>
       <c r="X31" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="Y31" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="Z31" s="1">
         <v>2.5</v>
       </c>
       <c r="AA31" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1">
-        <v>47.0</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>63</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>47</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C32" s="1">
         <v>5.5</v>
@@ -2939,7 +3273,7 @@
         <v>6.5</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F32" s="1">
         <v>1.5</v>
@@ -2948,191 +3282,191 @@
         <v>6.5</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I32" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N32" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="O32" s="1">
         <v>4.5</v>
       </c>
       <c r="P32" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R32" s="1">
         <v>2.5</v>
       </c>
       <c r="S32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T32" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V32" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="W32" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="X32" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="Y32" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="Z32" s="1">
         <v>2.5</v>
       </c>
       <c r="AA32" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1">
-        <v>48.0</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>64</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>48</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="C33" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D33" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F33" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G33" s="1">
         <v>6.5</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I33" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N33" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="O33" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="P33" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S33" s="1">
         <v>1.5</v>
       </c>
       <c r="T33" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V33" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="W33" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="X33" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="Y33" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="Z33" s="1">
         <v>2.5</v>
       </c>
       <c r="AA33" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1">
-        <v>51.0</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>65</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>51</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="C34" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D34" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F34" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J34" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N34" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O34" s="1">
         <v>1.5</v>
@@ -3141,852 +3475,852 @@
         <v>7.5</v>
       </c>
       <c r="Q34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R34" s="1">
+        <v>5</v>
+      </c>
+      <c r="S34" s="1">
+        <v>2</v>
+      </c>
+      <c r="T34" s="1">
+        <v>5</v>
+      </c>
+      <c r="U34" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R34" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="S34" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="T34" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="U34" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="V34" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="W34" s="1">
         <v>2.5</v>
       </c>
       <c r="X34" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="Y34" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="Z34" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AA34" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1">
-        <v>52.0</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>66</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>52</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C35" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D35" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F35" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J35" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O35" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="P35" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R35" s="1">
         <v>4.5</v>
       </c>
       <c r="S35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T35" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="V35" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="W35" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="X35" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="Y35" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="Z35" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AA35" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1">
-        <v>53.0</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>53</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C36" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D36" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G36" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I36" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J36" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O36" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="P36" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="Q36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R36" s="1">
+        <v>3</v>
+      </c>
+      <c r="S36" s="1">
+        <v>0</v>
+      </c>
+      <c r="T36" s="1">
+        <v>2</v>
+      </c>
+      <c r="U36" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R36" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="S36" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="T36" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="U36" s="1" t="s">
+      <c r="V36" s="1">
+        <v>-2</v>
+      </c>
+      <c r="W36" s="1">
+        <v>0</v>
+      </c>
+      <c r="X36" s="1">
+        <v>7</v>
+      </c>
+      <c r="Y36" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z36" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>54</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="1">
+        <v>6</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V36" s="1">
-        <v>-2.0</v>
-      </c>
-      <c r="W36" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X36" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="Y36" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="Z36" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="AA36" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1">
-        <v>54.0</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C37" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="D37" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="F37" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I37" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K37" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O37" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P37" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R37" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="S37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T37" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="V37" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X37" s="1">
         <v>8.5</v>
       </c>
       <c r="Y37" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Z37" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AA37" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1">
-        <v>55.0</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>69</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>55</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C38" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D38" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F38" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G38" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I38" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J38" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K38" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L38" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="M38" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N38" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O38" s="1">
         <v>2.5</v>
       </c>
       <c r="P38" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R38" s="1">
         <v>5.5</v>
       </c>
       <c r="S38" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T38" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="U38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V38" s="1">
+        <v>3</v>
+      </c>
+      <c r="W38" s="1">
+        <v>0</v>
+      </c>
+      <c r="X38" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y38" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>56</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="1">
+        <v>3</v>
+      </c>
+      <c r="D39" s="1">
+        <v>8</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V38" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="W38" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X38" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="Y38" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="Z38" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="AA38" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1">
-        <v>56.0</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C39" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="D39" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="F39" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G39" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I39" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J39" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K39" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L39" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="M39" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N39" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O39" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="P39" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R39" s="1">
+        <v>6</v>
+      </c>
+      <c r="S39" s="1">
+        <v>0</v>
+      </c>
+      <c r="T39" s="1">
+        <v>8</v>
+      </c>
+      <c r="U39" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R39" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="S39" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="T39" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="U39" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="V39" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W39" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X39" s="1">
         <v>5.5</v>
       </c>
       <c r="Y39" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="Z39" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AA39" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1">
-        <v>57.0</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>71</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>57</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="C40" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D40" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F40" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G40" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I40" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J40" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K40" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L40" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="M40" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N40" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O40" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="P40" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="Q40" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R40" s="1">
+        <v>3</v>
+      </c>
+      <c r="S40" s="1">
+        <v>0</v>
+      </c>
+      <c r="T40" s="1">
+        <v>10</v>
+      </c>
+      <c r="U40" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R40" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="S40" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="T40" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="U40" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="V40" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="W40" s="1">
         <v>2.5</v>
       </c>
       <c r="X40" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y40" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="Z40" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AA40" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1">
-        <v>58.0</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>72</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>58</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C41" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G41" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" s="1">
+        <v>1</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0</v>
+      </c>
+      <c r="K41" s="1">
+        <v>1</v>
+      </c>
+      <c r="L41" s="1">
+        <v>10</v>
+      </c>
+      <c r="M41" s="1">
+        <v>0</v>
+      </c>
+      <c r="N41" s="1">
+        <v>0</v>
+      </c>
+      <c r="O41" s="1">
+        <v>8</v>
+      </c>
+      <c r="P41" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I41" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="J41" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="K41" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="L41" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="M41" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="N41" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="O41" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="P41" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="Q41" s="1" t="s">
+      <c r="R41" s="1">
+        <v>0</v>
+      </c>
+      <c r="S41" s="1">
+        <v>0</v>
+      </c>
+      <c r="T41" s="1">
+        <v>10</v>
+      </c>
+      <c r="U41" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R41" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="S41" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="T41" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="U41" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="V41" s="1">
-        <v>-3.0</v>
+        <v>-3</v>
       </c>
       <c r="W41" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="X41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y41" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="Z41" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AA41" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1">
-        <v>61.0</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>73</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>61</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="C42" s="1">
         <v>4.5</v>
       </c>
       <c r="D42" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G42" s="1">
         <v>6.5</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I42" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K42" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L42" s="1">
         <v>7.5</v>
       </c>
       <c r="M42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O42" s="1">
         <v>2.5</v>
       </c>
       <c r="P42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R42" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="S42" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="T42" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="V42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X42" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="Y42" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Z42" s="1">
         <v>2.5</v>
       </c>
       <c r="AA42" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1">
-        <v>62.0</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>74</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>62</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="C43" s="1">
         <v>4.5</v>
       </c>
       <c r="D43" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F43" s="1">
         <v>1.5</v>
       </c>
       <c r="G43" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I43" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J43" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K43" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L43" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="M43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O43" s="1">
         <v>6.5</v>
       </c>
       <c r="P43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="R43" s="1">
         <v>4.5</v>
       </c>
       <c r="S43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T43" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V43" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="W43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X43" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Y43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z43" s="1">
         <v>5.5</v>
       </c>
       <c r="AA43" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1">
-        <v>63.0</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>76</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>63</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="C44" s="1">
         <v>5.5</v>
       </c>
       <c r="D44" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="E44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
+        <v>3</v>
+      </c>
+      <c r="H44" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F44" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G44" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="I44" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J44" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L44" s="1">
         <v>6.5</v>
       </c>
       <c r="M44" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N44" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O44" s="1">
         <v>6.5</v>
       </c>
       <c r="P44" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="R44" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="S44" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T44" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="V44" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="W44" s="1">
         <v>6.5</v>
@@ -3995,1095 +4329,1154 @@
         <v>5.5</v>
       </c>
       <c r="Y44" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="Z44" s="1">
         <v>6.5</v>
       </c>
       <c r="AA44" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1">
-        <v>64.0</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>77</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>64</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="C45" s="1">
         <v>5.5</v>
       </c>
       <c r="D45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F45" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J45" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O45" s="1">
         <v>6.5</v>
       </c>
       <c r="P45" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R45" s="1">
         <v>5.5</v>
       </c>
       <c r="S45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T45" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V45" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="W45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X45" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="Y45" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="Z45" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="AA45" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1">
-        <v>65.0</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>78</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>65</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C46" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D46" s="1">
         <v>2.5</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G46" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I46" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J46" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K46" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L46" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="M46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O46" s="1">
         <v>7.5</v>
       </c>
       <c r="P46" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="R46" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="S46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T46" s="1">
         <v>4.5</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="V46" s="1">
-        <v>-3.0</v>
+        <v>-3</v>
       </c>
       <c r="W46" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="X46" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Y46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA46" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1">
-        <v>66.0</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>79</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>66</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="C47" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D47" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F47" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G47" s="1">
         <v>4.5</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I47" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K47" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L47" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="M47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O47" s="1">
         <v>6.5</v>
       </c>
       <c r="P47" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="R47" s="1">
         <v>5.5</v>
       </c>
       <c r="S47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T47" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="U47" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="V47" s="1">
-        <v>-2.0</v>
+        <v>-2</v>
       </c>
       <c r="W47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X47" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="Y47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z47" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AA47" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1">
-        <v>67.0</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>80</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>67</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="C48" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D48" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F48" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G48" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I48" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J48" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K48" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L48" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="M48" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N48" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O48" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="P48" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="R48" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="S48" s="1">
         <v>2.5</v>
       </c>
       <c r="T48" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V48" s="1">
+        <v>0</v>
+      </c>
+      <c r="W48" s="1">
+        <v>0</v>
+      </c>
+      <c r="X48" s="1">
+        <v>10</v>
+      </c>
+      <c r="Y48" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="1">
+        <v>10</v>
+      </c>
+      <c r="AA48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>68</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="1">
+        <v>3</v>
+      </c>
+      <c r="D49" s="1">
+        <v>3</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1">
+        <v>6</v>
+      </c>
+      <c r="H49" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V48" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="W48" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X48" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="Y48" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="Z48" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="AA48" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1">
-        <v>68.0</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C49" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="D49" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F49" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G49" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="I49" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J49" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K49" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L49" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="M49" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N49" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O49" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="P49" s="1">
         <v>8.5</v>
       </c>
       <c r="Q49" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R49" s="1">
+        <v>6</v>
+      </c>
+      <c r="S49" s="1">
+        <v>0</v>
+      </c>
+      <c r="T49" s="1">
+        <v>10</v>
+      </c>
+      <c r="U49" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R49" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="S49" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="T49" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="U49" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="V49" s="1">
-        <v>-3.0</v>
+        <v>-3</v>
       </c>
       <c r="W49" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="X49" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="Y49" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="Z49" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="AA49" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1">
-        <v>71.0</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>82</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>71</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="C50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M50" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="N50" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O50" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="P50" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R50" s="1">
         <v>1.5</v>
       </c>
       <c r="S50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T50" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V50" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="W50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X50" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="Y50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z50" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AA50" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1">
-        <v>72.0</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>83</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>72</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="C51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M51" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="N51" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O51" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="P51" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="R51" s="1">
         <v>3.5</v>
       </c>
       <c r="S51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T51" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="U51" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V51" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="W51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X51" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="Y51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z51" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AA51" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1">
-        <v>73.0</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>84</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>73</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="C52" s="1">
         <v>5.5</v>
       </c>
       <c r="D52" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F52" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G52" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I52" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J52" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K52" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L52" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M52" s="1">
         <v>3.5</v>
       </c>
       <c r="N52" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O52" s="1">
         <v>3.5</v>
       </c>
       <c r="P52" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R52" s="1">
         <v>1.5</v>
       </c>
       <c r="S52" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="T52" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="U52" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V52" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="W52" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="X52" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y52" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="Z52" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AA52" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1">
-        <v>74.0</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>85</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>74</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="C53" s="1">
         <v>5.5</v>
       </c>
       <c r="D53" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F53" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G53" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I53" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J53" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K53" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L53" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M53" s="1">
         <v>3.5</v>
       </c>
       <c r="N53" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O53" s="1">
         <v>3.5</v>
       </c>
       <c r="P53" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="Q53" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R53" s="1">
+        <v>0</v>
+      </c>
+      <c r="S53" s="1">
+        <v>2</v>
+      </c>
+      <c r="T53" s="1">
+        <v>10</v>
+      </c>
+      <c r="U53" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R53" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="S53" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="T53" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="U53" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="V53" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="W53" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X53" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="Y53" s="1">
         <v>5.5</v>
       </c>
       <c r="Z53" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AA53" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1">
-        <v>75.0</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>86</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>75</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="C54" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P54" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="Q54" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R54" s="1">
+        <v>7</v>
+      </c>
+      <c r="S54" s="1">
+        <v>4</v>
+      </c>
+      <c r="T54" s="1">
+        <v>10</v>
+      </c>
+      <c r="U54" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R54" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="S54" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="T54" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="U54" s="1" t="s">
+      <c r="V54" s="1">
+        <v>-1</v>
+      </c>
+      <c r="W54" s="1">
+        <v>0</v>
+      </c>
+      <c r="X54" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y54" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z54" s="1">
+        <v>8</v>
+      </c>
+      <c r="AA54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <v>76</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C55" s="1">
+        <v>6</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0</v>
+      </c>
+      <c r="H55" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V54" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="W54" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X54" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="Y54" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="Z54" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="AA54" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1">
-        <v>76.0</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C55" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="D55" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F55" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G55" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="I55" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J55" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K55" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L55" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M55" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="N55" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O55" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="P55" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="R55" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="S55" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T55" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="U55" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V55" s="1">
+        <v>0</v>
+      </c>
+      <c r="W55" s="1">
+        <v>0</v>
+      </c>
+      <c r="X55" s="1">
+        <v>10</v>
+      </c>
+      <c r="Y55" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="1">
+        <v>8</v>
+      </c>
+      <c r="AA55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
+        <v>77</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0</v>
+      </c>
+      <c r="J56" s="1">
+        <v>0</v>
+      </c>
+      <c r="K56" s="1">
+        <v>0</v>
+      </c>
+      <c r="L56" s="1">
+        <v>10</v>
+      </c>
+      <c r="M56" s="1">
+        <v>6</v>
+      </c>
+      <c r="N56" s="1">
+        <v>0</v>
+      </c>
+      <c r="O56" s="1">
+        <v>6</v>
+      </c>
+      <c r="P56" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R56" s="1">
+        <v>0</v>
+      </c>
+      <c r="S56" s="1">
+        <v>6</v>
+      </c>
+      <c r="T56" s="1">
+        <v>10</v>
+      </c>
+      <c r="U56" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V56" s="1">
+        <v>4</v>
+      </c>
+      <c r="W56" s="1">
+        <v>0</v>
+      </c>
+      <c r="X56" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y56" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z56" s="1">
+        <v>8</v>
+      </c>
+      <c r="AA56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
+        <v>78</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V55" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="W55" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X55" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="Y55" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="Z55" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="AA55" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1">
-        <v>77.0</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C56" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="D56" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F56" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G56" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I56" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="J56" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="K56" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="L56" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="M56" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="N56" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="O56" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="P56" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="Q56" s="1" t="s">
+      <c r="F57" s="1">
+        <v>0</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0</v>
+      </c>
+      <c r="H57" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R56" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="S56" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="T56" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="U56" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V56" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="W56" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="X56" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="Y56" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="Z56" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="AA56" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1">
-        <v>78.0</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C57" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="D57" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F57" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G57" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="I57" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J57" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K57" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L57" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M57" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N57" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O57" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="P57" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="Q57" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R57" s="1">
+        <v>4</v>
+      </c>
+      <c r="S57" s="1">
+        <v>2</v>
+      </c>
+      <c r="T57" s="1">
+        <v>10</v>
+      </c>
+      <c r="U57" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R57" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="S57" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="T57" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="U57" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="V57" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="W57" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X57" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Y57" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z57" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AA57" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink ref="B57" r:id="rId1" display="https://www.synthmania.com/Roland Juno-60/Audio/Factory presets group 1/78 Synthesizer Drum.mp3" xr:uid="{9636CD77-8484-489B-9D80-1CB24DA3CEB5}"/>
+    <hyperlink ref="B56" r:id="rId2" display="https://www.synthmania.com/Roland Juno-60/Audio/Factory presets group 1/77 Surf.mp3" xr:uid="{B14B3E1D-C014-4DB1-ADAA-FFF744BB72A5}"/>
+    <hyperlink ref="B42" r:id="rId3" display="https://www.synthmania.com/Roland Juno-60/Audio/Factory presets group 1/61 Synthesizer Organ.mp3" xr:uid="{2990FD63-A1F7-4149-B965-14954AF98C36}"/>
+    <hyperlink ref="B2" r:id="rId4" display="https://www.synthmania.com/Roland Juno-60/Audio/Factory presets group 1/11 Strings 1.mp3" xr:uid="{6637AB53-16BD-4639-AA63-C35EE1EA84D8}"/>
+    <hyperlink ref="B3" r:id="rId5" display="https://www.synthmania.com/Roland Juno-60/Audio/Factory presets group 1/12 Strings 2.mp3" xr:uid="{AE7C5FA4-BA1C-4F24-9593-91E4F87BBBB6}"/>
+    <hyperlink ref="B4" r:id="rId6" display="https://www.synthmania.com/Roland Juno-60/Audio/Factory presets group 1/13 Strings 3.mp3" xr:uid="{1A3CAEF9-AFF0-43EF-8EE9-E25BA5F90E6E}"/>
+    <hyperlink ref="B5" r:id="rId7" display="https://www.synthmania.com/Roland Juno-60/Audio/Factory presets group 1/14 Organ 1.mp3" xr:uid="{7F8E4E11-A876-4F47-B26B-A7C564F84EBB}"/>
+    <hyperlink ref="B6" r:id="rId8" display="https://www.synthmania.com/Roland Juno-60/Audio/Factory presets group 1/15 Organ 2.mp3" xr:uid="{78196488-07DB-4277-9C28-8636D770207E}"/>
+    <hyperlink ref="B7" r:id="rId9" display="https://www.synthmania.com/Roland Juno-60/Audio/Factory presets group 1/16 Organ 3.mp3" xr:uid="{B414EE2E-7539-4B4C-9EAB-1A3B6051DC2B}"/>
+    <hyperlink ref="B8" r:id="rId10" display="https://www.synthmania.com/Roland Juno-60/Audio/Factory presets group 1/17 Brass.mp3" xr:uid="{1132813E-BFE8-480A-BF52-DC6EB6393F10}"/>
+    <hyperlink ref="B9" r:id="rId11" display="https://www.synthmania.com/Roland Juno-60/Audio/Factory presets group 1/18 Phase Brass.mp3" xr:uid="{E25C3518-233E-40CE-A04C-AA580EE4AF15}"/>
+    <hyperlink ref="B10" r:id="rId12" display="https://www.synthmania.com/Roland Juno-60/Audio/Factory presets group 1/21 Piano 1.mp3" xr:uid="{A051C33F-A33E-460C-9C72-8F7C5B52D08A}"/>
+    <hyperlink ref="B11" r:id="rId13" display="https://www.synthmania.com/Roland Juno-60/Audio/Factory presets group 1/22 Piano 2.mp3" xr:uid="{A32215EB-E077-4011-92E6-5EB2A90E9A04}"/>
+    <hyperlink ref="B12" r:id="rId14" display="https://www.synthmania.com/Roland Juno-60/Audio/Factory presets group 1/23 Celesta.mp3" xr:uid="{41EF55D0-3479-4E4E-AF9C-82D2ABA45B8C}"/>
+    <hyperlink ref="B13" r:id="rId15" display="https://www.synthmania.com/Roland Juno-60/Audio/Factory presets group 1/24 Mellow Piano.mp3" xr:uid="{B02FBC73-4C19-40FF-9AD4-9A02107C70D7}"/>
+    <hyperlink ref="B14" r:id="rId16" display="https://www.synthmania.com/Roland Juno-60/Audio/Factory presets group 1/25 Harpsichord 1.mp3" xr:uid="{7D344B0C-4448-4821-8F49-EDA330240AEF}"/>
+    <hyperlink ref="B15" r:id="rId17" display="https://www.synthmania.com/Roland Juno-60/Audio/Factory presets group 1/26 Harpsichord 2.mp3" xr:uid="{EAF1F452-458A-41D2-9AAE-78C5414F9405}"/>
+    <hyperlink ref="B16" r:id="rId18" display="https://www.synthmania.com/Roland Juno-60/Audio/Factory presets group 1/27 Guitar.mp3" xr:uid="{608CE21F-4567-44F9-879A-A714A36F250F}"/>
+    <hyperlink ref="B17" r:id="rId19" display="https://www.synthmania.com/Roland Juno-60/Audio/Factory presets group 1/28 Synthesizer Harp.mp3" xr:uid="{B3A96CE7-194E-4B8E-BCDA-33FC4A7077AB}"/>
+    <hyperlink ref="B18" r:id="rId20" display="https://www.synthmania.com/Roland Juno-60/Audio/Factory presets group 1/31 Bass 1.mp3" xr:uid="{C142429F-9620-49CC-813D-FD6650BBFC76}"/>
+    <hyperlink ref="B19" r:id="rId21" display="https://www.synthmania.com/Roland Juno-60/Audio/Factory presets group 1/32 Bass 2.mp3" xr:uid="{1A7E9C39-6818-46A4-A6C4-51FDD828C931}"/>
+    <hyperlink ref="B20" r:id="rId22" display="https://www.synthmania.com/Roland Juno-60/Audio/Factory presets group 1/33 Clavichord 1.mp3" xr:uid="{88D3F678-7479-4885-9E55-2C5175573BC4}"/>
+    <hyperlink ref="B21" r:id="rId23" display="https://www.synthmania.com/Roland Juno-60/Audio/Factory presets group 1/34 Clavichord 2.mp3" xr:uid="{6225F3D8-6115-4724-8B39-4E93338C209D}"/>
+    <hyperlink ref="B22" r:id="rId24" display="https://www.synthmania.com/Roland Juno-60/Audio/Factory presets group 1/35 Pizzicato Sound 1.mp3" xr:uid="{87E425A6-5E0B-40C8-8474-A52587C4D349}"/>
+    <hyperlink ref="B23" r:id="rId25" display="https://www.synthmania.com/Roland Juno-60/Audio/Factory presets group 1/36 Pizzicato Sound 2.mp3" xr:uid="{A84ECF43-427E-4209-BBBA-3C5F2905922F}"/>
+    <hyperlink ref="B24" r:id="rId26" display="https://www.synthmania.com/Roland Juno-60/Audio/Factory presets group 1/37 Xylophone.mp3" xr:uid="{0331E25F-F9B1-4F75-A47A-F115580748B6}"/>
+    <hyperlink ref="B25" r:id="rId27" display="https://www.synthmania.com/Roland Juno-60/Audio/Factory presets group 1/38 Glockenspiel.mp3" xr:uid="{3904D6A8-EF5B-4E51-8435-512288CD4670}"/>
+    <hyperlink ref="B26" r:id="rId28" display="https://www.synthmania.com/Roland Juno-60/Audio/Factory presets group 1/41 Violine.mp3" xr:uid="{0DB430BA-7C16-474A-A6C6-7E1F9EE363B3}"/>
+    <hyperlink ref="B27" r:id="rId29" display="https://www.synthmania.com/Roland Juno-60/Audio/Factory presets group 1/42 Trumpet.mp3" xr:uid="{A61AA7E4-5671-41C8-98A7-AA949C191CDD}"/>
+    <hyperlink ref="B28" r:id="rId30" display="https://www.synthmania.com/Roland Juno-60/Audio/Factory presets group 1/43 Horn.mp3" xr:uid="{09B515AB-03E5-4B38-A88C-371D80B55D09}"/>
+    <hyperlink ref="B29" r:id="rId31" display="https://www.synthmania.com/Roland Juno-60/Audio/Factory presets group 1/44 Tuba.mp3" xr:uid="{0BF16200-AEEC-4E6F-8996-846DF114D935}"/>
+    <hyperlink ref="B30" r:id="rId32" display="https://www.synthmania.com/Roland Juno-60/Audio/Factory presets group 1/45 Flute.mp3" xr:uid="{07857DF1-C196-41FF-9CA4-34903C089351}"/>
+    <hyperlink ref="B31" r:id="rId33" display="https://www.synthmania.com/Roland Juno-60/Audio/Factory presets group 1/46 Clarinet.mp3" xr:uid="{C633119D-4957-4D05-B786-5171F3C561AD}"/>
+    <hyperlink ref="B32" r:id="rId34" display="https://www.synthmania.com/Roland Juno-60/Audio/Factory presets group 1/47 Oboe.mp3" xr:uid="{B876164B-CBFE-4F5D-A1C5-5E5252B19A53}"/>
+    <hyperlink ref="B33" r:id="rId35" display="https://www.synthmania.com/Roland Juno-60/Audio/Factory presets group 1/48 English Horn.mp3" xr:uid="{6A313750-178C-4050-8EF8-2BB2DD664CB4}"/>
+    <hyperlink ref="B34" r:id="rId36" display="https://www.synthmania.com/Roland Juno-60/Audio/Factory presets group 1/51 Funny Cat.mp3" xr:uid="{90F6A249-84CD-47A9-9F21-00BA2DA01D8E}"/>
+    <hyperlink ref="B35" r:id="rId37" display="https://www.synthmania.com/Roland Juno-60/Audio/Factory presets group 1/52 Wah Brass.mp3" xr:uid="{57CF8A41-3ADA-4EC2-A921-45ACF166CF3B}"/>
+    <hyperlink ref="B36" r:id="rId38" display="https://www.synthmania.com/Roland Juno-60/Audio/Factory presets group 1/53 Phase Combination.mp3" xr:uid="{11005EC0-1FD3-4820-8999-568680B06DBD}"/>
+    <hyperlink ref="B37" r:id="rId39" display="https://www.synthmania.com/Roland Juno-60/Audio/Factory presets group 1/54 Reed 1.mp3" xr:uid="{A2AA0D09-41FA-416B-92E1-37005FC02FBE}"/>
+    <hyperlink ref="B38" r:id="rId40" display="https://www.synthmania.com/Roland Juno-60/Audio/Factory presets group 1/55 Popcorn.mp3" xr:uid="{957C1FEA-74DD-43DB-B041-EE4F5E02E6C4}"/>
+    <hyperlink ref="B39" r:id="rId41" display="https://www.synthmania.com/Roland Juno-60/Audio/Factory presets group 1/56 Reed 2.mp3" xr:uid="{58708D0B-0C4D-4B0E-8893-E3E721628360}"/>
+    <hyperlink ref="B40" r:id="rId42" display="https://www.synthmania.com/Roland Juno-60/Audio/Factory presets group 1/57 Reed 3.mp3" xr:uid="{2703F142-22AE-4760-8CA8-25F6C1C7078A}"/>
+    <hyperlink ref="B41" r:id="rId43" display="https://www.synthmania.com/Roland Juno-60/Audio/Factory presets group 1/58 PMW Chorus.mp3" xr:uid="{0BC0B2A4-E55D-42EF-9079-7F6FED97BC30}"/>
+    <hyperlink ref="B43" r:id="rId44" display="https://www.synthmania.com/Roland Juno-60/Audio/Factory presets group 1/62 Effect Sound 1.mp3" xr:uid="{F23CB334-7DA0-4B69-A711-DE08ACA66A7A}"/>
+    <hyperlink ref="B44" r:id="rId45" display="https://www.synthmania.com/Roland Juno-60/Audio/Factory presets group 1/63 Effect Sound 2.mp3" xr:uid="{C3FA3948-F7E6-48B4-9046-E11977A5098B}"/>
+    <hyperlink ref="B45" r:id="rId46" display="https://www.synthmania.com/Roland Juno-60/Audio/Factory presets group 1/64 Space Harp.mp3" xr:uid="{EE32F7E1-5B61-4B8E-8955-9E629AED3316}"/>
+    <hyperlink ref="B46" r:id="rId47" display="https://www.synthmania.com/Roland Juno-60/Audio/Factory presets group 1/65 Funk.mp3" xr:uid="{6A5BA769-7B80-46BF-91A5-E64C7BD22B7F}"/>
+    <hyperlink ref="B47" r:id="rId48" display="https://www.synthmania.com/Roland Juno-60/Audio/Factory presets group 1/66 Space Sound 1.mp3" xr:uid="{0F0E68C1-A17B-423B-8BDB-556A87BEB61E}"/>
+    <hyperlink ref="B48" r:id="rId49" display="https://www.synthmania.com/Roland Juno-60/Audio/Factory presets group 1/67 Mysterious Invention.mp3" xr:uid="{2128FC55-0245-464B-9BAE-FDD936BEB99E}"/>
+    <hyperlink ref="B49" r:id="rId50" display="https://www.synthmania.com/Roland Juno-60/Audio/Factory presets group 1/68 Space Sound 2.mp3" xr:uid="{4A442C0A-F706-4398-9084-5A8815E6C5C6}"/>
+    <hyperlink ref="B50" r:id="rId51" display="https://www.synthmania.com/Roland Juno-60/Audio/Factory presets group 1/71 Percussive Sound 1.mp3" xr:uid="{3B2635B0-735F-41E7-906D-8F613755B3CD}"/>
+    <hyperlink ref="B51" r:id="rId52" display="https://www.synthmania.com/Roland Juno-60/Audio/Factory presets group 1/72 Percussive Sound 2b.mp3" xr:uid="{82F167D6-4056-474D-9A99-7361F4261753}"/>
+    <hyperlink ref="B52" r:id="rId53" display="https://www.synthmania.com/Roland Juno-60/Audio/Factory presets group 1/73 Whistle.mp3" xr:uid="{B3093B69-2A2C-47CE-82F9-F72AE8FBB1C2}"/>
+    <hyperlink ref="B53" r:id="rId54" display="https://www.synthmania.com/Roland Juno-60/Audio/Factory presets group 1/74 Effect Sound 3.mp3" xr:uid="{6862B1D9-4FA5-4AC7-8E02-0FC5C20AFC27}"/>
+    <hyperlink ref="B54" r:id="rId55" display="https://www.synthmania.com/Roland Juno-60/Audio/Factory presets group 1/75 UFO.mp3" xr:uid="{DD209B6E-E675-419F-A515-B13A9D015DAB}"/>
+    <hyperlink ref="B55" r:id="rId56" display="https://www.synthmania.com/Roland Juno-60/Audio/Factory presets group 1/76 Space Sound 2.mp3" xr:uid="{F72FD3FE-3731-442C-9560-55263B57B768}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId57"/>
 </worksheet>
 </file>
--- a/patches/Juno60.xlsx
+++ b/patches/Juno60.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\GitHub\junox\patches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C73468F-9132-4C34-9285-6EBF3A1B5811}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C9DB17-1574-40CD-A9C4-DDAA580B93C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16428" yWindow="-5220" windowWidth="12900" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25164" yWindow="-3840" windowWidth="19872" windowHeight="12468" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bank A (from service manual)" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Bank A (from service manual)'!$A$1:$AA$57</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -314,15 +317,21 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -330,12 +339,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -346,6 +370,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -667,105 +695,122 @@
   <dimension ref="A1:AA57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="M11" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" customWidth="1"/>
-    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="K1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5418,6 +5463,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AA57" xr:uid="{F3C0AD35-EBA0-4FCF-BBC0-5C497CCDE899}"/>
   <hyperlinks>
     <hyperlink ref="B57" r:id="rId1" display="https://www.synthmania.com/Roland Juno-60/Audio/Factory presets group 1/78 Synthesizer Drum.mp3" xr:uid="{9636CD77-8484-489B-9D80-1CB24DA3CEB5}"/>
     <hyperlink ref="B56" r:id="rId2" display="https://www.synthmania.com/Roland Juno-60/Audio/Factory presets group 1/77 Surf.mp3" xr:uid="{B14B3E1D-C014-4DB1-ADAA-FFF744BB72A5}"/>

--- a/patches/Juno60.xlsx
+++ b/patches/Juno60.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\GitHub\junox\patches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C9DB17-1574-40CD-A9C4-DDAA580B93C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61EF1C50-65B3-4D7E-B59F-AAF692E4DA81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25164" yWindow="-3840" windowWidth="19872" windowHeight="12468" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16284" yWindow="-5340" windowWidth="30936" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bank A (from service manual)" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Bank A (from service manual)'!$A$1:$AA$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Bank A (from service manual)'!$A$1:$AB$57</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="93">
   <si>
     <t>Number</t>
   </si>
@@ -293,13 +293,22 @@
   </si>
   <si>
     <t>Space Sound 3</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>U</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -316,8 +325,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -326,7 +342,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,11 +376,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -370,12 +392,14 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -692,161 +716,165 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA57"/>
+  <dimension ref="A1:AB57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="M11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A32" sqref="A32:XFD32"/>
+      <selection pane="bottomRight" activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="7" t="s">
+    <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="7" t="s">
+      <c r="G1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="Q1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="S1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="T1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="U1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="V1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="W1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="X1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="Y1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Z1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="AA1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AB1" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="1">
-        <v>6</v>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
       <c r="G2" s="1">
         <v>0</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
       <c r="J2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" s="1">
         <v>0</v>
@@ -858,78 +886,81 @@
         <v>0</v>
       </c>
       <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
         <v>7</v>
       </c>
-      <c r="P2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R2" s="1">
-        <v>0</v>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="S2" s="1">
         <v>0</v>
       </c>
       <c r="T2" s="1">
-        <v>10</v>
-      </c>
-      <c r="U2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <v>10</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V2" s="1">
-        <v>0</v>
-      </c>
       <c r="W2" s="1">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1">
         <v>4</v>
       </c>
-      <c r="X2" s="1">
-        <v>0</v>
-      </c>
       <c r="Y2" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
+        <v>10</v>
+      </c>
+      <c r="AA2" s="1">
         <v>4.5</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AB2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>12</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="1">
         <v>4</v>
       </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
       <c r="G3" s="1">
-        <v>6</v>
-      </c>
-      <c r="H3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>6</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="1">
-        <v>1</v>
-      </c>
       <c r="J3" s="1">
         <v>1</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="1">
         <v>0</v>
@@ -941,73 +972,76 @@
         <v>0</v>
       </c>
       <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
         <v>7</v>
       </c>
-      <c r="P3" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R3" s="1">
-        <v>0</v>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="S3" s="1">
         <v>0</v>
       </c>
       <c r="T3" s="1">
-        <v>10</v>
-      </c>
-      <c r="U3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
+        <v>10</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V3" s="1">
+      <c r="W3" s="1">
         <v>-2</v>
       </c>
-      <c r="W3" s="1">
+      <c r="X3" s="1">
         <v>4</v>
       </c>
-      <c r="X3" s="1">
-        <v>0</v>
-      </c>
       <c r="Y3" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
+        <v>10</v>
+      </c>
+      <c r="AA3" s="1">
         <v>4.5</v>
       </c>
-      <c r="AA3" s="1">
+      <c r="AB3" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>13</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="1">
-        <v>3</v>
+      <c r="C4" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
         <v>8</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
       <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
         <v>7</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="1">
-        <v>1</v>
-      </c>
       <c r="J4" s="1">
         <v>1</v>
       </c>
@@ -1015,121 +1049,124 @@
         <v>1</v>
       </c>
       <c r="L4" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M4" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N4" s="1">
         <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R4" s="1">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="S4" s="1">
         <v>0</v>
       </c>
       <c r="T4" s="1">
-        <v>10</v>
-      </c>
-      <c r="U4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <v>10</v>
+      </c>
+      <c r="V4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V4" s="1">
+      <c r="W4" s="1">
         <v>-2</v>
       </c>
-      <c r="W4" s="1">
-        <v>3</v>
-      </c>
       <c r="X4" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y4" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AA4" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>14</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="1">
-        <v>2</v>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
         <v>8</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
       <c r="G5" s="1">
-        <v>5</v>
-      </c>
-      <c r="H5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="1">
-        <v>1</v>
-      </c>
       <c r="J5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M5" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N5" s="1">
         <v>0</v>
       </c>
       <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
         <v>4</v>
       </c>
-      <c r="P5" s="1">
-        <v>6</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R5" s="1">
+      <c r="Q5" s="1">
+        <v>6</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S5" s="1">
         <v>4.5</v>
       </c>
-      <c r="S5" s="1">
-        <v>0</v>
-      </c>
       <c r="T5" s="1">
-        <v>10</v>
-      </c>
-      <c r="U5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <v>10</v>
+      </c>
+      <c r="V5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="V5" s="1">
-        <v>0</v>
-      </c>
       <c r="W5" s="1">
         <v>0</v>
       </c>
@@ -1143,208 +1180,217 @@
         <v>0</v>
       </c>
       <c r="AA5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>15</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="1">
-        <v>5</v>
+      <c r="C6" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
         <v>4</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
       <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
         <v>5.5</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
       <c r="J6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1">
         <v>8</v>
       </c>
-      <c r="M6" s="1">
-        <v>0</v>
-      </c>
       <c r="N6" s="1">
         <v>0</v>
       </c>
       <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
         <v>3.5</v>
       </c>
-      <c r="P6" s="1">
+      <c r="Q6" s="1">
         <v>5.5</v>
       </c>
-      <c r="Q6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R6" s="1">
+      <c r="R6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S6" s="1">
         <v>4</v>
       </c>
-      <c r="S6" s="1">
-        <v>0</v>
-      </c>
       <c r="T6" s="1">
-        <v>10</v>
-      </c>
-      <c r="U6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
+        <v>10</v>
+      </c>
+      <c r="V6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="V6" s="1">
-        <v>0</v>
-      </c>
       <c r="W6" s="1">
         <v>0</v>
       </c>
       <c r="X6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="1">
         <v>1</v>
       </c>
+      <c r="AB6" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>16</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="1">
-        <v>5</v>
+      <c r="C7" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D7" s="1">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1">
         <v>4</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
       <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
         <v>5.5</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="1">
-        <v>1</v>
-      </c>
       <c r="J7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1">
         <v>8</v>
       </c>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
       <c r="N7" s="1">
         <v>0</v>
       </c>
       <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
         <v>3.5</v>
       </c>
-      <c r="P7" s="1">
+      <c r="Q7" s="1">
         <v>5.5</v>
       </c>
-      <c r="Q7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R7" s="1">
+      <c r="R7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S7" s="1">
         <v>3.5</v>
       </c>
-      <c r="S7" s="1">
-        <v>0</v>
-      </c>
       <c r="T7" s="1">
-        <v>10</v>
-      </c>
-      <c r="U7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U7" s="1">
+        <v>10</v>
+      </c>
+      <c r="V7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="V7" s="1">
-        <v>0</v>
-      </c>
       <c r="W7" s="1">
         <v>0</v>
       </c>
       <c r="X7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>17</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="1">
-        <v>5</v>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D8" s="1">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1">
         <v>6.5</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>1.5</v>
       </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
       <c r="J8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="1">
         <v>0</v>
@@ -1361,153 +1407,159 @@
       <c r="P8" s="1">
         <v>0</v>
       </c>
-      <c r="Q8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R8" s="1">
+      <c r="Q8" s="1">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S8" s="1">
         <v>8.5</v>
       </c>
-      <c r="S8" s="1">
-        <v>0</v>
-      </c>
       <c r="T8" s="1">
+        <v>0</v>
+      </c>
+      <c r="U8" s="1">
         <v>4</v>
       </c>
-      <c r="U8" s="1" t="s">
+      <c r="V8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V8" s="1">
-        <v>2</v>
-      </c>
       <c r="W8" s="1">
+        <v>2</v>
+      </c>
+      <c r="X8" s="1">
         <v>2.5</v>
       </c>
-      <c r="X8" s="1">
+      <c r="Y8" s="1">
         <v>4</v>
       </c>
-      <c r="Y8" s="1">
-        <v>6</v>
-      </c>
       <c r="Z8" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AA8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB8" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>18</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="1">
-        <v>6</v>
+      <c r="C9" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
       <c r="G9" s="1">
-        <v>10</v>
-      </c>
-      <c r="H9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>10</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="1">
-        <v>1</v>
-      </c>
       <c r="J9" s="1">
         <v>1</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M9" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N9" s="1">
         <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R9" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>1</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S9" s="1">
         <v>5.5</v>
       </c>
-      <c r="S9" s="1">
-        <v>0</v>
-      </c>
       <c r="T9" s="1">
-        <v>10</v>
-      </c>
-      <c r="U9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1">
+        <v>10</v>
+      </c>
+      <c r="V9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="V9" s="1">
+      <c r="W9" s="1">
         <v>-1</v>
       </c>
-      <c r="W9" s="1">
-        <v>2</v>
-      </c>
       <c r="X9" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y9" s="1">
         <v>4</v>
       </c>
       <c r="Z9" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA9" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB9" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>21</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="1">
-        <v>6</v>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D10" s="1">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>4.5</v>
       </c>
-      <c r="G10" s="1">
-        <v>6</v>
-      </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="1">
+        <v>6</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="1">
-        <v>1</v>
-      </c>
       <c r="J10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="1">
         <v>0</v>
@@ -1522,654 +1574,678 @@
         <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S10" s="1">
         <v>7</v>
       </c>
-      <c r="S10" s="1">
-        <v>0</v>
-      </c>
       <c r="T10" s="1">
+        <v>0</v>
+      </c>
+      <c r="U10" s="1">
         <v>4</v>
       </c>
-      <c r="U10" s="1" t="s">
+      <c r="V10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V10" s="1">
-        <v>2</v>
-      </c>
       <c r="W10" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="1">
         <v>8</v>
       </c>
-      <c r="Y10" s="1">
+      <c r="Z10" s="1">
         <v>1.5</v>
       </c>
-      <c r="Z10" s="1">
-        <v>3</v>
-      </c>
       <c r="AA10" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB10" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>22</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="1">
         <v>4</v>
       </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
       <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
         <v>4</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="1">
-        <v>1</v>
-      </c>
       <c r="J11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1">
         <v>4.5</v>
       </c>
-      <c r="M11" s="1">
-        <v>0</v>
-      </c>
       <c r="N11" s="1">
         <v>0</v>
       </c>
       <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
         <v>3.5</v>
       </c>
-      <c r="P11" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R11" s="1">
+      <c r="Q11" s="1">
+        <v>0</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S11" s="1">
         <v>2.5</v>
       </c>
-      <c r="S11" s="1">
-        <v>2</v>
-      </c>
       <c r="T11" s="1">
+        <v>2</v>
+      </c>
+      <c r="U11" s="1">
         <v>8</v>
       </c>
-      <c r="U11" s="1" t="s">
+      <c r="V11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V11" s="1">
-        <v>3</v>
-      </c>
       <c r="W11" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="1">
         <v>7.5</v>
       </c>
-      <c r="Y11" s="1">
-        <v>0</v>
-      </c>
       <c r="Z11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="1">
         <v>3.5</v>
       </c>
-      <c r="AA11" s="1">
+      <c r="AB11" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>23</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="1">
         <v>3.5</v>
       </c>
-      <c r="D12" s="1">
-        <v>6</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="1">
+        <v>6</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
       <c r="G12" s="1">
-        <v>5</v>
-      </c>
-      <c r="H12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>5</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="1">
-        <v>1</v>
-      </c>
       <c r="J12" s="1">
         <v>1</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M12" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
+        <v>1</v>
+      </c>
+      <c r="P12" s="1">
         <v>3.5</v>
       </c>
-      <c r="P12" s="1">
+      <c r="Q12" s="1">
         <v>8</v>
       </c>
-      <c r="Q12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R12" s="1">
-        <v>0</v>
+      <c r="R12" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="S12" s="1">
         <v>0</v>
       </c>
       <c r="T12" s="1">
-        <v>10</v>
-      </c>
-      <c r="U12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U12" s="1">
+        <v>10</v>
+      </c>
+      <c r="V12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V12" s="1">
-        <v>1</v>
-      </c>
       <c r="W12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="1">
         <v>6.5</v>
       </c>
-      <c r="Y12" s="1">
-        <v>2</v>
-      </c>
       <c r="Z12" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA12" s="1">
         <v>5.5</v>
       </c>
-      <c r="AA12" s="1">
+      <c r="AB12" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>24</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="1">
-        <v>5</v>
+      <c r="C13" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
       <c r="G13" s="1">
-        <v>5</v>
-      </c>
-      <c r="H13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>5</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="1">
-        <v>1</v>
-      </c>
       <c r="J13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="1">
         <v>0</v>
       </c>
       <c r="L13" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M13" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N13" s="1">
         <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R13" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S13" s="1">
         <v>2.5</v>
       </c>
-      <c r="S13" s="1">
-        <v>1</v>
-      </c>
       <c r="T13" s="1">
+        <v>1</v>
+      </c>
+      <c r="U13" s="1">
         <v>9</v>
       </c>
-      <c r="U13" s="1" t="s">
+      <c r="V13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V13" s="1">
-        <v>2</v>
-      </c>
       <c r="W13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="1">
         <v>7.5</v>
       </c>
-      <c r="Y13" s="1">
-        <v>2</v>
-      </c>
       <c r="Z13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA13" s="1">
         <v>8.5</v>
       </c>
-      <c r="AA13" s="1">
+      <c r="AB13" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>25</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="1">
-        <v>5</v>
+      <c r="C14" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D14" s="1">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1">
         <v>4</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
       <c r="G14" s="1">
-        <v>3</v>
-      </c>
-      <c r="H14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>3</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="1">
-        <v>1</v>
-      </c>
       <c r="J14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="1">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1">
         <v>7</v>
       </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
       <c r="N14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P14" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R14" s="1">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="S14" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T14" s="1">
+        <v>0</v>
+      </c>
+      <c r="U14" s="1">
         <v>7</v>
       </c>
-      <c r="U14" s="1" t="s">
+      <c r="V14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V14" s="1">
+      <c r="W14" s="1">
         <v>-1</v>
       </c>
-      <c r="W14" s="1">
-        <v>0</v>
-      </c>
       <c r="X14" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="1">
+        <v>6</v>
+      </c>
+      <c r="Z14" s="1">
         <v>3.5</v>
       </c>
-      <c r="Z14" s="1">
+      <c r="AA14" s="1">
         <v>2.5</v>
       </c>
-      <c r="AA14" s="1">
+      <c r="AB14" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>26</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="1">
         <v>5.5</v>
       </c>
-      <c r="D15" s="1">
-        <v>6</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="1">
+        <v>6</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
       <c r="G15" s="1">
-        <v>2</v>
-      </c>
-      <c r="H15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>2</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I15" s="1">
-        <v>1</v>
-      </c>
       <c r="J15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="1">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1">
         <v>8.5</v>
       </c>
-      <c r="M15" s="1">
-        <v>0</v>
-      </c>
       <c r="N15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P15" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="1">
         <v>2.5</v>
       </c>
-      <c r="Q15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R15" s="1">
-        <v>3</v>
+      <c r="R15" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="S15" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T15" s="1">
-        <v>10</v>
-      </c>
-      <c r="U15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U15" s="1">
+        <v>10</v>
+      </c>
+      <c r="V15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V15" s="1">
-        <v>0</v>
-      </c>
       <c r="W15" s="1">
         <v>0</v>
       </c>
       <c r="X15" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z15" s="1">
         <v>1.5</v>
       </c>
-      <c r="Z15" s="1">
-        <v>5</v>
-      </c>
       <c r="AA15" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB15" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>27</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="1">
-        <v>6</v>
+      <c r="C16" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D16" s="1">
         <v>6</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="1">
+        <v>6</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
       <c r="G16" s="1">
-        <v>6</v>
-      </c>
-      <c r="H16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>6</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I16" s="1">
-        <v>1</v>
-      </c>
       <c r="J16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="1">
         <v>0</v>
       </c>
       <c r="L16" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M16" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N16" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O16" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P16" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R16" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S16" s="1">
         <v>4.5</v>
       </c>
-      <c r="S16" s="1">
+      <c r="T16" s="1">
         <v>1.5</v>
       </c>
-      <c r="T16" s="1">
-        <v>5</v>
-      </c>
-      <c r="U16" s="1" t="s">
+      <c r="U16" s="1">
+        <v>5</v>
+      </c>
+      <c r="V16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V16" s="1">
+      <c r="W16" s="1">
         <v>4</v>
       </c>
-      <c r="W16" s="1">
-        <v>0</v>
-      </c>
       <c r="X16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="1">
         <v>5.5</v>
       </c>
-      <c r="Y16" s="1">
+      <c r="Z16" s="1">
         <v>3.5</v>
       </c>
-      <c r="Z16" s="1">
+      <c r="AA16" s="1">
         <v>6.5</v>
       </c>
-      <c r="AA16" s="1">
+      <c r="AB16" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>28</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="1">
-        <v>3</v>
+      <c r="C17" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D17" s="1">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1">
         <v>8</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
       <c r="G17" s="1">
         <v>0</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
       <c r="J17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M17" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N17" s="1">
         <v>0</v>
       </c>
       <c r="O17" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R17" s="1">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="S17" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T17" s="1">
+        <v>0</v>
+      </c>
+      <c r="U17" s="1">
         <v>8</v>
       </c>
-      <c r="U17" s="1" t="s">
+      <c r="V17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V17" s="1">
-        <v>1</v>
-      </c>
       <c r="W17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="1">
         <v>5.5</v>
       </c>
-      <c r="Y17" s="1">
-        <v>3</v>
-      </c>
       <c r="Z17" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AA17" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB17" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>31</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="1">
-        <v>5</v>
+      <c r="C18" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="D18" s="1">
-        <v>6</v>
-      </c>
-      <c r="E18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="1">
+        <v>6</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
       <c r="G18" s="1">
-        <v>5</v>
-      </c>
-      <c r="H18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>5</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I18" s="1">
-        <v>1</v>
-      </c>
       <c r="J18" s="1">
         <v>1</v>
       </c>
@@ -2177,167 +2253,173 @@
         <v>1</v>
       </c>
       <c r="L18" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M18" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N18" s="1">
         <v>0</v>
       </c>
       <c r="O18" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="1">
         <v>2.5</v>
       </c>
-      <c r="Q18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R18" s="1">
+      <c r="R18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S18" s="1">
         <v>3.5</v>
       </c>
-      <c r="S18" s="1">
-        <v>0</v>
-      </c>
       <c r="T18" s="1">
         <v>0</v>
       </c>
-      <c r="U18" s="1" t="s">
+      <c r="U18" s="1">
+        <v>0</v>
+      </c>
+      <c r="V18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="V18" s="1">
-        <v>0</v>
-      </c>
       <c r="W18" s="1">
         <v>0</v>
       </c>
       <c r="X18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="1">
         <v>4</v>
       </c>
-      <c r="Y18" s="1">
-        <v>1</v>
-      </c>
       <c r="Z18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="1">
         <v>2.5</v>
       </c>
-      <c r="AA18" s="1">
+      <c r="AB18" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>32</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="1">
-        <v>5</v>
+      <c r="C19" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="D19" s="1">
-        <v>6</v>
-      </c>
-      <c r="E19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="1">
+        <v>6</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
       <c r="G19" s="1">
-        <v>5</v>
-      </c>
-      <c r="H19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>5</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I19" s="1">
-        <v>1</v>
-      </c>
       <c r="J19" s="1">
         <v>1</v>
       </c>
       <c r="K19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M19" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N19" s="1">
         <v>0</v>
       </c>
       <c r="O19" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>5</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R19" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>5</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S19" s="1">
         <v>4.5</v>
       </c>
-      <c r="S19" s="1">
-        <v>0</v>
-      </c>
       <c r="T19" s="1">
-        <v>5</v>
-      </c>
-      <c r="U19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U19" s="1">
+        <v>5</v>
+      </c>
+      <c r="V19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="V19" s="1">
+      <c r="W19" s="1">
         <v>-1</v>
       </c>
-      <c r="W19" s="1">
-        <v>0</v>
-      </c>
       <c r="X19" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y19" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z19" s="1">
         <v>3.5</v>
       </c>
-      <c r="Z19" s="1">
+      <c r="AA19" s="1">
         <v>2.5</v>
       </c>
-      <c r="AA19" s="1">
+      <c r="AB19" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>33</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="1">
-        <v>6</v>
+      <c r="C20" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="D20" s="1">
+        <v>6</v>
+      </c>
+      <c r="E20" s="1">
         <v>2.5</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="1">
+      <c r="G20" s="1">
         <v>4</v>
       </c>
-      <c r="G20" s="1">
-        <v>9</v>
-      </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="1">
+        <v>8</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I20" s="1">
-        <v>1</v>
-      </c>
       <c r="J20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="1">
         <v>0</v>
@@ -2355,404 +2437,419 @@
         <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>3</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S20" s="1">
         <v>8</v>
       </c>
-      <c r="S20" s="1">
-        <v>0</v>
-      </c>
       <c r="T20" s="1">
-        <v>6</v>
-      </c>
-      <c r="U20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U20" s="1">
+        <v>6</v>
+      </c>
+      <c r="V20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V20" s="1">
-        <v>2</v>
-      </c>
       <c r="W20" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X20" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z20" s="1">
         <v>3.5</v>
       </c>
-      <c r="Z20" s="1">
+      <c r="AA20" s="1">
         <v>1.5</v>
       </c>
-      <c r="AA20" s="1">
+      <c r="AB20" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>34</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="1">
-        <v>1</v>
+      <c r="C21" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="D21" s="1">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
       <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
         <v>8</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I21" s="1">
-        <v>1</v>
-      </c>
       <c r="J21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="1">
         <v>0</v>
       </c>
       <c r="L21" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M21" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" s="1">
+        <v>1</v>
+      </c>
+      <c r="P21" s="1">
         <v>5.5</v>
       </c>
-      <c r="P21" s="1">
+      <c r="Q21" s="1">
         <v>7</v>
       </c>
-      <c r="Q21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R21" s="1">
-        <v>2</v>
+      <c r="R21" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="S21" s="1">
+        <v>2</v>
+      </c>
+      <c r="T21" s="1">
         <v>2.5</v>
       </c>
-      <c r="T21" s="1">
+      <c r="U21" s="1">
         <v>7</v>
       </c>
-      <c r="U21" s="1" t="s">
+      <c r="V21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V21" s="1">
-        <v>5</v>
-      </c>
       <c r="W21" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="1">
         <v>4.5</v>
       </c>
-      <c r="Y21" s="1">
-        <v>2</v>
-      </c>
       <c r="Z21" s="1">
         <v>2</v>
       </c>
       <c r="AA21" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB21" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>35</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="1">
-        <v>5</v>
+      <c r="C22" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D22" s="1">
-        <v>6</v>
-      </c>
-      <c r="E22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="1">
+        <v>6</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
       <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
         <v>3.5</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I22" s="1">
-        <v>1</v>
-      </c>
       <c r="J22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="1">
         <v>0</v>
       </c>
       <c r="L22" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M22" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N22" s="1">
         <v>0</v>
       </c>
       <c r="O22" s="1">
+        <v>0</v>
+      </c>
+      <c r="P22" s="1">
         <v>4.5</v>
       </c>
-      <c r="P22" s="1">
-        <v>4</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R22" s="1">
-        <v>3</v>
+      <c r="Q22" s="1">
+        <v>3</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="S22" s="1">
         <v>3</v>
       </c>
       <c r="T22" s="1">
-        <v>10</v>
-      </c>
-      <c r="U22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U22" s="1">
+        <v>10</v>
+      </c>
+      <c r="V22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V22" s="1">
-        <v>3</v>
-      </c>
       <c r="W22" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X22" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y22" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z22" s="1">
         <v>3.5</v>
       </c>
-      <c r="Z22" s="1">
+      <c r="AA22" s="1">
         <v>5.5</v>
       </c>
-      <c r="AA22" s="1">
+      <c r="AB22" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>36</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="1">
-        <v>5</v>
+      <c r="C23" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D23" s="1">
-        <v>6</v>
-      </c>
-      <c r="E23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="1">
+        <v>6</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
       <c r="G23" s="1">
-        <v>2</v>
-      </c>
-      <c r="H23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>2</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I23" s="1">
-        <v>1</v>
-      </c>
       <c r="J23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M23" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N23" s="1">
         <v>0</v>
       </c>
       <c r="O23" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>3</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S23" s="1">
+        <v>3</v>
+      </c>
+      <c r="T23" s="1">
+        <v>0</v>
+      </c>
+      <c r="U23" s="1">
+        <v>10</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W23" s="1">
+        <v>1</v>
+      </c>
+      <c r="X23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA23" s="1">
         <v>4</v>
       </c>
-      <c r="Q23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R23" s="1">
-        <v>3</v>
-      </c>
-      <c r="S23" s="1">
-        <v>0</v>
-      </c>
-      <c r="T23" s="1">
-        <v>10</v>
-      </c>
-      <c r="U23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="V23" s="1">
-        <v>1</v>
-      </c>
-      <c r="W23" s="1">
-        <v>0</v>
-      </c>
-      <c r="X23" s="1">
-        <v>3</v>
-      </c>
-      <c r="Y23" s="1">
-        <v>3</v>
-      </c>
-      <c r="Z23" s="1">
-        <v>4</v>
-      </c>
-      <c r="AA23" s="1">
+      <c r="AB23" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>37</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="1">
-        <v>5</v>
+      <c r="C24" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D24" s="1">
-        <v>0</v>
-      </c>
-      <c r="E24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="1">
-        <v>0</v>
-      </c>
       <c r="G24" s="1">
-        <v>5</v>
-      </c>
-      <c r="H24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>5</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I24" s="1">
-        <v>0</v>
-      </c>
       <c r="J24" s="1">
         <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M24" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" s="1">
+        <v>1</v>
+      </c>
+      <c r="P24" s="1">
         <v>4</v>
       </c>
-      <c r="P24" s="1">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R24" s="1">
-        <v>3</v>
+      <c r="Q24" s="1">
+        <v>5</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="S24" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T24" s="1">
-        <v>6</v>
-      </c>
-      <c r="U24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U24" s="1">
+        <v>6</v>
+      </c>
+      <c r="V24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V24" s="1">
-        <v>5</v>
-      </c>
       <c r="W24" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="1">
         <v>3.5</v>
       </c>
-      <c r="Y24" s="1">
-        <v>0</v>
-      </c>
       <c r="Z24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="1">
         <v>3.5</v>
       </c>
-      <c r="AA24" s="1">
+      <c r="AB24" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>38</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="1">
-        <v>5</v>
+      <c r="C25" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D25" s="1">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
       <c r="G25" s="1">
         <v>0</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I25" s="1">
-        <v>1</v>
-      </c>
       <c r="J25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="1">
         <v>0</v>
@@ -2764,81 +2861,84 @@
         <v>0</v>
       </c>
       <c r="N25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" s="1">
+        <v>1</v>
+      </c>
+      <c r="P25" s="1">
         <v>4.5</v>
       </c>
-      <c r="P25" s="1">
-        <v>5</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R25" s="1">
-        <v>3</v>
+      <c r="Q25" s="1">
+        <v>5</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="S25" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T25" s="1">
-        <v>6</v>
-      </c>
-      <c r="U25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U25" s="1">
+        <v>6</v>
+      </c>
+      <c r="V25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V25" s="1">
+      <c r="W25" s="1">
         <v>4</v>
       </c>
-      <c r="W25" s="1">
-        <v>0</v>
-      </c>
       <c r="X25" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y25" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z25" s="1">
         <v>2.5</v>
       </c>
-      <c r="Z25" s="1">
-        <v>5</v>
-      </c>
       <c r="AA25" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB25" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>41</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="1">
-        <v>6</v>
+      <c r="C26" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D26" s="1">
         <v>6</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="1">
+        <v>6</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="1">
-        <v>2</v>
-      </c>
       <c r="G26" s="1">
-        <v>0</v>
-      </c>
-      <c r="H26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I26" s="1">
-        <v>0</v>
-      </c>
       <c r="J26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="1">
         <v>0</v>
@@ -2847,81 +2947,84 @@
         <v>0</v>
       </c>
       <c r="N26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" s="1">
+        <v>1</v>
+      </c>
+      <c r="P26" s="1">
         <v>6.5</v>
       </c>
-      <c r="P26" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R26" s="1">
-        <v>0</v>
+      <c r="Q26" s="1">
+        <v>0</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="S26" s="1">
         <v>0</v>
       </c>
       <c r="T26" s="1">
-        <v>10</v>
-      </c>
-      <c r="U26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U26" s="1">
+        <v>10</v>
+      </c>
+      <c r="V26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V26" s="1">
-        <v>2</v>
-      </c>
       <c r="W26" s="1">
+        <v>2</v>
+      </c>
+      <c r="X26" s="1">
         <v>4</v>
       </c>
-      <c r="X26" s="1">
-        <v>0</v>
-      </c>
       <c r="Y26" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
+        <v>10</v>
+      </c>
+      <c r="AA26" s="1">
         <v>4</v>
       </c>
-      <c r="AA26" s="1">
+      <c r="AB26" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>42</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="1">
         <v>2.5</v>
       </c>
-      <c r="D27" s="1">
+      <c r="E27" s="1">
         <v>6.5</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="1">
+      <c r="G27" s="1">
         <v>1.5</v>
       </c>
-      <c r="G27" s="1">
-        <v>0</v>
-      </c>
-      <c r="H27" s="1" t="s">
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I27" s="1">
-        <v>0</v>
-      </c>
       <c r="J27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="1">
         <v>0</v>
@@ -2938,73 +3041,76 @@
       <c r="P27" s="1">
         <v>0</v>
       </c>
-      <c r="Q27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R27" s="1">
+      <c r="Q27" s="1">
+        <v>0</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S27" s="1">
         <v>8.5</v>
       </c>
-      <c r="S27" s="1">
-        <v>0</v>
-      </c>
       <c r="T27" s="1">
+        <v>0</v>
+      </c>
+      <c r="U27" s="1">
         <v>4</v>
       </c>
-      <c r="U27" s="1" t="s">
+      <c r="V27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V27" s="1">
-        <v>2</v>
-      </c>
       <c r="W27" s="1">
+        <v>2</v>
+      </c>
+      <c r="X27" s="1">
         <v>2.5</v>
       </c>
-      <c r="X27" s="1">
+      <c r="Y27" s="1">
         <v>4</v>
       </c>
-      <c r="Y27" s="1">
-        <v>6</v>
-      </c>
       <c r="Z27" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AA27" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB27" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>43</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="1">
         <v>2.5</v>
       </c>
-      <c r="D28" s="1">
+      <c r="E28" s="1">
         <v>7</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F28" s="1">
-        <v>0</v>
-      </c>
       <c r="G28" s="1">
         <v>0</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I28" s="1">
-        <v>0</v>
-      </c>
       <c r="J28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" s="1">
         <v>0</v>
@@ -3016,78 +3122,81 @@
         <v>0</v>
       </c>
       <c r="O28" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P28" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R28" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>0</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S28" s="1">
         <v>5.5</v>
       </c>
-      <c r="S28" s="1">
-        <v>2</v>
-      </c>
       <c r="T28" s="1">
+        <v>2</v>
+      </c>
+      <c r="U28" s="1">
         <v>4</v>
       </c>
-      <c r="U28" s="1" t="s">
+      <c r="V28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V28" s="1">
-        <v>2</v>
-      </c>
       <c r="W28" s="1">
+        <v>2</v>
+      </c>
+      <c r="X28" s="1">
         <v>4</v>
       </c>
-      <c r="X28" s="1">
-        <v>5</v>
-      </c>
       <c r="Y28" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z28" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AA28" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB28" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>44</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="1">
         <v>2.5</v>
       </c>
-      <c r="D29" s="1">
+      <c r="E29" s="1">
         <v>7</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="1">
+      <c r="G29" s="1">
         <v>1.5</v>
       </c>
-      <c r="G29" s="1">
-        <v>0</v>
-      </c>
-      <c r="H29" s="1" t="s">
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I29" s="1">
-        <v>0</v>
-      </c>
       <c r="J29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" s="1">
         <v>0</v>
@@ -3099,158 +3208,164 @@
         <v>0</v>
       </c>
       <c r="O29" s="1">
+        <v>0</v>
+      </c>
+      <c r="P29" s="1">
         <v>1.5</v>
       </c>
-      <c r="P29" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R29" s="1">
-        <v>6</v>
+      <c r="Q29" s="1">
+        <v>0</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="S29" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T29" s="1">
+        <v>0</v>
+      </c>
+      <c r="U29" s="1">
         <v>4</v>
       </c>
-      <c r="U29" s="1" t="s">
+      <c r="V29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V29" s="1">
-        <v>5</v>
-      </c>
       <c r="W29" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X29" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y29" s="1">
         <v>4</v>
       </c>
       <c r="Z29" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA29" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB29" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>45</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="1">
         <v>5.5</v>
       </c>
-      <c r="D30" s="1">
-        <v>5</v>
-      </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="1">
+        <v>5</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="1">
-        <v>0</v>
-      </c>
       <c r="G30" s="1">
         <v>0</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I30" s="1">
-        <v>0</v>
-      </c>
       <c r="J30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" s="1">
         <v>0</v>
       </c>
       <c r="M30" s="1">
+        <v>0</v>
+      </c>
+      <c r="N30" s="1">
         <v>1.5</v>
       </c>
-      <c r="N30" s="1">
-        <v>1</v>
-      </c>
       <c r="O30" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P30" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R30" s="1">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>0</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="S30" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T30" s="1">
-        <v>6</v>
-      </c>
-      <c r="U30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U30" s="1">
+        <v>6</v>
+      </c>
+      <c r="V30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V30" s="1">
-        <v>5</v>
-      </c>
       <c r="W30" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X30" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Y30" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z30" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA30" s="1">
         <v>2.5</v>
       </c>
-      <c r="AA30" s="1">
+      <c r="AB30" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>46</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="1">
-        <v>5</v>
+      <c r="C31" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D31" s="1">
+        <v>5</v>
+      </c>
+      <c r="E31" s="1">
         <v>6.5</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F31" s="1">
+      <c r="G31" s="1">
         <v>1.5</v>
       </c>
-      <c r="G31" s="1">
-        <v>0</v>
-      </c>
-      <c r="H31" s="1" t="s">
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I31" s="1">
-        <v>1</v>
-      </c>
       <c r="J31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="1">
         <v>0</v>
@@ -3262,78 +3377,81 @@
         <v>0</v>
       </c>
       <c r="N31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P31" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R31" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>3</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S31" s="1">
         <v>2.5</v>
       </c>
-      <c r="S31" s="1">
-        <v>0</v>
-      </c>
       <c r="T31" s="1">
-        <v>6</v>
-      </c>
-      <c r="U31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U31" s="1">
+        <v>6</v>
+      </c>
+      <c r="V31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V31" s="1">
-        <v>1</v>
-      </c>
       <c r="W31" s="1">
+        <v>1</v>
+      </c>
+      <c r="X31" s="1">
         <v>2.5</v>
       </c>
-      <c r="X31" s="1">
-        <v>6</v>
-      </c>
       <c r="Y31" s="1">
         <v>6</v>
       </c>
       <c r="Z31" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA31" s="1">
         <v>2.5</v>
       </c>
-      <c r="AA31" s="1">
+      <c r="AB31" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>47</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="1">
         <v>5.5</v>
       </c>
-      <c r="D32" s="1">
+      <c r="E32" s="1">
         <v>6.5</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F32" s="1">
+      <c r="G32" s="1">
         <v>1.5</v>
       </c>
-      <c r="G32" s="1">
+      <c r="H32" s="1">
         <v>6.5</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="I32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I32" s="1">
-        <v>1</v>
-      </c>
       <c r="J32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="1">
         <v>0</v>
@@ -3345,78 +3463,81 @@
         <v>0</v>
       </c>
       <c r="N32" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O32" s="1">
+        <v>3</v>
+      </c>
+      <c r="P32" s="1">
         <v>4.5</v>
       </c>
-      <c r="P32" s="1">
-        <v>5</v>
-      </c>
-      <c r="Q32" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R32" s="1">
+      <c r="Q32" s="1">
+        <v>5</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S32" s="1">
         <v>2.5</v>
       </c>
-      <c r="S32" s="1">
-        <v>0</v>
-      </c>
       <c r="T32" s="1">
-        <v>5</v>
-      </c>
-      <c r="U32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U32" s="1">
+        <v>5</v>
+      </c>
+      <c r="V32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V32" s="1">
-        <v>5</v>
-      </c>
       <c r="W32" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X32" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Y32" s="1">
         <v>6</v>
       </c>
       <c r="Z32" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA32" s="1">
         <v>2.5</v>
       </c>
-      <c r="AA32" s="1">
+      <c r="AB32" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>48</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="1">
-        <v>5</v>
+      <c r="C33" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="D33" s="1">
+        <v>5</v>
+      </c>
+      <c r="E33" s="1">
         <v>7</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F33" s="1">
-        <v>2</v>
-      </c>
       <c r="G33" s="1">
+        <v>2</v>
+      </c>
+      <c r="H33" s="1">
         <v>6.5</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="I33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I33" s="1">
-        <v>1</v>
-      </c>
       <c r="J33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="1">
         <v>0</v>
@@ -3428,81 +3549,84 @@
         <v>0</v>
       </c>
       <c r="N33" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O33" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P33" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="1">
         <v>7</v>
       </c>
-      <c r="Q33" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R33" s="1">
-        <v>0</v>
+      <c r="R33" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="S33" s="1">
+        <v>0</v>
+      </c>
+      <c r="T33" s="1">
         <v>1.5</v>
       </c>
-      <c r="T33" s="1">
-        <v>5</v>
-      </c>
-      <c r="U33" s="1" t="s">
+      <c r="U33" s="1">
+        <v>5</v>
+      </c>
+      <c r="V33" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V33" s="1">
-        <v>5</v>
-      </c>
       <c r="W33" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X33" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Y33" s="1">
         <v>6</v>
       </c>
       <c r="Z33" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA33" s="1">
         <v>2.5</v>
       </c>
-      <c r="AA33" s="1">
+      <c r="AB33" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>51</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="1">
-        <v>6</v>
+      <c r="C34" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D34" s="1">
-        <v>2</v>
-      </c>
-      <c r="E34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F34" s="1">
-        <v>3</v>
-      </c>
       <c r="G34" s="1">
-        <v>0</v>
-      </c>
-      <c r="H34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I34" s="1">
-        <v>0</v>
-      </c>
       <c r="J34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" s="1">
         <v>0</v>
@@ -3511,81 +3635,84 @@
         <v>0</v>
       </c>
       <c r="N34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O34" s="1">
+        <v>1</v>
+      </c>
+      <c r="P34" s="1">
         <v>1.5</v>
       </c>
-      <c r="P34" s="1">
+      <c r="Q34" s="1">
         <v>7.5</v>
       </c>
-      <c r="Q34" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R34" s="1">
-        <v>5</v>
+      <c r="R34" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="S34" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T34" s="1">
-        <v>5</v>
-      </c>
-      <c r="U34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U34" s="1">
+        <v>5</v>
+      </c>
+      <c r="V34" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V34" s="1">
-        <v>3</v>
-      </c>
       <c r="W34" s="1">
+        <v>3</v>
+      </c>
+      <c r="X34" s="1">
         <v>2.5</v>
       </c>
-      <c r="X34" s="1">
+      <c r="Y34" s="1">
         <v>4</v>
       </c>
-      <c r="Y34" s="1">
-        <v>10</v>
-      </c>
       <c r="Z34" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AA34" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB34" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>52</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="1">
-        <v>6</v>
+      <c r="C35" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D35" s="1">
-        <v>2</v>
-      </c>
-      <c r="E35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="1">
+        <v>2</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F35" s="1">
-        <v>3</v>
-      </c>
       <c r="G35" s="1">
-        <v>0</v>
-      </c>
-      <c r="H35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I35" s="1">
-        <v>0</v>
-      </c>
       <c r="J35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" s="1">
         <v>0</v>
@@ -3597,78 +3724,81 @@
         <v>0</v>
       </c>
       <c r="O35" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P35" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="1">
         <v>7</v>
       </c>
-      <c r="Q35" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R35" s="1">
+      <c r="R35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S35" s="1">
         <v>4.5</v>
       </c>
-      <c r="S35" s="1">
-        <v>0</v>
-      </c>
       <c r="T35" s="1">
-        <v>6</v>
-      </c>
-      <c r="U35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U35" s="1">
+        <v>6</v>
+      </c>
+      <c r="V35" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="V35" s="1">
-        <v>2</v>
-      </c>
       <c r="W35" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X35" s="1">
         <v>3</v>
       </c>
       <c r="Y35" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z35" s="1">
         <v>4</v>
       </c>
-      <c r="Z35" s="1">
-        <v>2</v>
-      </c>
       <c r="AA35" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB35" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>53</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="1">
-        <v>6</v>
+      <c r="C36" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D36" s="1">
-        <v>2</v>
-      </c>
-      <c r="E36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="1">
+        <v>2</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="1">
-        <v>0</v>
-      </c>
       <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
         <v>8</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="I36" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I36" s="1">
-        <v>1</v>
-      </c>
       <c r="J36" s="1">
         <v>1</v>
       </c>
       <c r="K36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" s="1">
         <v>0</v>
@@ -3680,78 +3810,81 @@
         <v>0</v>
       </c>
       <c r="O36" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P36" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q36" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R36" s="1">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>2</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="S36" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T36" s="1">
-        <v>2</v>
-      </c>
-      <c r="U36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U36" s="1">
+        <v>2</v>
+      </c>
+      <c r="V36" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V36" s="1">
+      <c r="W36" s="1">
         <v>-2</v>
       </c>
-      <c r="W36" s="1">
-        <v>0</v>
-      </c>
       <c r="X36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="1">
         <v>7</v>
       </c>
-      <c r="Y36" s="1">
-        <v>2</v>
-      </c>
       <c r="Z36" s="1">
         <v>2</v>
       </c>
       <c r="AA36" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB36" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>54</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C37" s="1">
-        <v>6</v>
+      <c r="C37" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D37" s="1">
-        <v>2</v>
-      </c>
-      <c r="E37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="1">
+        <v>2</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F37" s="1">
+      <c r="G37" s="1">
         <v>4</v>
       </c>
-      <c r="G37" s="1">
-        <v>0</v>
-      </c>
-      <c r="H37" s="1" t="s">
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I37" s="1">
-        <v>1</v>
-      </c>
       <c r="J37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37" s="1">
         <v>0</v>
@@ -3763,488 +3896,506 @@
         <v>0</v>
       </c>
       <c r="O37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37" s="1">
-        <v>6</v>
-      </c>
-      <c r="Q37" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R37" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>6</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S37" s="1">
         <v>7</v>
       </c>
-      <c r="S37" s="1">
-        <v>0</v>
-      </c>
       <c r="T37" s="1">
-        <v>5</v>
-      </c>
-      <c r="U37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U37" s="1">
+        <v>5</v>
+      </c>
+      <c r="V37" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="V37" s="1">
-        <v>1</v>
-      </c>
       <c r="W37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="1">
         <v>8.5</v>
       </c>
-      <c r="Y37" s="1">
-        <v>5</v>
-      </c>
       <c r="Z37" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA37" s="1">
         <v>1</v>
       </c>
+      <c r="AB37" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>55</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="1">
-        <v>0</v>
+      <c r="C38" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F38" s="1">
-        <v>0</v>
-      </c>
       <c r="G38" s="1">
         <v>0</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I38" s="1">
-        <v>0</v>
-      </c>
       <c r="J38" s="1">
         <v>0</v>
       </c>
       <c r="K38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M38" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O38" s="1">
+        <v>1</v>
+      </c>
+      <c r="P38" s="1">
         <v>2.5</v>
       </c>
-      <c r="P38" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q38" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R38" s="1">
+      <c r="Q38" s="1">
+        <v>2</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S38" s="1">
         <v>5.5</v>
       </c>
-      <c r="S38" s="1">
-        <v>0</v>
-      </c>
       <c r="T38" s="1">
-        <v>10</v>
-      </c>
-      <c r="U38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U38" s="1">
+        <v>10</v>
+      </c>
+      <c r="V38" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V38" s="1">
-        <v>3</v>
-      </c>
       <c r="W38" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X38" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y38" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z38" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA38" s="1">
         <v>0</v>
       </c>
+      <c r="AB38" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>56</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="1">
-        <v>3</v>
+      <c r="C39" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D39" s="1">
+        <v>3</v>
+      </c>
+      <c r="E39" s="1">
         <v>8</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F39" s="1">
-        <v>0</v>
-      </c>
       <c r="G39" s="1">
         <v>0</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I39" s="1">
-        <v>0</v>
-      </c>
       <c r="J39" s="1">
         <v>0</v>
       </c>
       <c r="K39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M39" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N39" s="1">
         <v>0</v>
       </c>
       <c r="O39" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P39" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R39" s="1">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>0</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="S39" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T39" s="1">
+        <v>0</v>
+      </c>
+      <c r="U39" s="1">
         <v>8</v>
       </c>
-      <c r="U39" s="1" t="s">
+      <c r="V39" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V39" s="1">
-        <v>0</v>
-      </c>
       <c r="W39" s="1">
         <v>0</v>
       </c>
       <c r="X39" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="1">
         <v>5.5</v>
       </c>
-      <c r="Y39" s="1">
-        <v>3</v>
-      </c>
       <c r="Z39" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AA39" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB39" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>57</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C40" s="1">
-        <v>6</v>
+      <c r="C40" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D40" s="1">
-        <v>2</v>
-      </c>
-      <c r="E40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="1">
+        <v>2</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F40" s="1">
-        <v>2</v>
-      </c>
       <c r="G40" s="1">
-        <v>5</v>
-      </c>
-      <c r="H40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H40" s="1">
+        <v>5</v>
+      </c>
+      <c r="I40" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I40" s="1">
-        <v>0</v>
-      </c>
       <c r="J40" s="1">
         <v>0</v>
       </c>
       <c r="K40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M40" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N40" s="1">
         <v>0</v>
       </c>
       <c r="O40" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P40" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q40" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R40" s="1">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>2</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="S40" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T40" s="1">
-        <v>10</v>
-      </c>
-      <c r="U40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U40" s="1">
+        <v>10</v>
+      </c>
+      <c r="V40" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V40" s="1">
-        <v>1</v>
-      </c>
       <c r="W40" s="1">
+        <v>1</v>
+      </c>
+      <c r="X40" s="1">
         <v>2.5</v>
       </c>
-      <c r="X40" s="1">
-        <v>0</v>
-      </c>
       <c r="Y40" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z40" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AA40" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB40" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>58</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="1">
-        <v>3</v>
+      <c r="C41" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D41" s="1">
-        <v>0</v>
-      </c>
-      <c r="E41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F41" s="1">
-        <v>0</v>
-      </c>
       <c r="G41" s="1">
-        <v>5</v>
-      </c>
-      <c r="H41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
+        <v>5</v>
+      </c>
+      <c r="I41" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I41" s="1">
-        <v>1</v>
-      </c>
       <c r="J41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M41" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N41" s="1">
         <v>0</v>
       </c>
       <c r="O41" s="1">
+        <v>0</v>
+      </c>
+      <c r="P41" s="1">
         <v>8</v>
       </c>
-      <c r="P41" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R41" s="1">
-        <v>0</v>
+      <c r="Q41" s="1">
+        <v>0</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="S41" s="1">
         <v>0</v>
       </c>
       <c r="T41" s="1">
-        <v>10</v>
-      </c>
-      <c r="U41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U41" s="1">
+        <v>10</v>
+      </c>
+      <c r="V41" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V41" s="1">
+      <c r="W41" s="1">
         <v>-3</v>
       </c>
-      <c r="W41" s="1">
-        <v>3</v>
-      </c>
       <c r="X41" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y41" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z41" s="1">
+        <v>10</v>
+      </c>
+      <c r="AA41" s="1">
         <v>4</v>
       </c>
-      <c r="AA41" s="1">
+      <c r="AB41" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>61</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" s="1">
         <v>4.5</v>
       </c>
-      <c r="D42" s="1">
-        <v>6</v>
-      </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" s="1">
+        <v>6</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F42" s="1">
-        <v>0</v>
-      </c>
       <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
         <v>6.5</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="I42" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I42" s="1">
-        <v>1</v>
-      </c>
       <c r="J42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" s="1">
+        <v>1</v>
+      </c>
+      <c r="M42" s="1">
         <v>7.5</v>
       </c>
-      <c r="M42" s="1">
-        <v>0</v>
-      </c>
       <c r="N42" s="1">
         <v>0</v>
       </c>
       <c r="O42" s="1">
+        <v>0</v>
+      </c>
+      <c r="P42" s="1">
         <v>2.5</v>
       </c>
-      <c r="P42" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R42" s="1">
-        <v>5</v>
+      <c r="Q42" s="1">
+        <v>0</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="S42" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T42" s="1">
+        <v>2</v>
+      </c>
+      <c r="U42" s="1">
         <v>7</v>
       </c>
-      <c r="U42" s="1" t="s">
+      <c r="V42" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="V42" s="1">
-        <v>0</v>
-      </c>
       <c r="W42" s="1">
         <v>0</v>
       </c>
       <c r="X42" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y42" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Z42" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA42" s="1">
         <v>2.5</v>
       </c>
-      <c r="AA42" s="1">
+      <c r="AB42" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>62</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" s="1">
         <v>4.5</v>
       </c>
-      <c r="D43" s="1">
-        <v>6</v>
-      </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" s="1">
+        <v>6</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F43" s="1">
+      <c r="G43" s="1">
         <v>1.5</v>
       </c>
-      <c r="G43" s="1">
-        <v>10</v>
-      </c>
-      <c r="H43" s="1" t="s">
+      <c r="H43" s="1">
+        <v>10</v>
+      </c>
+      <c r="I43" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I43" s="1">
-        <v>1</v>
-      </c>
       <c r="J43" s="1">
         <v>1</v>
       </c>
@@ -4252,170 +4403,176 @@
         <v>1</v>
       </c>
       <c r="L43" s="1">
+        <v>1</v>
+      </c>
+      <c r="M43" s="1">
         <v>7</v>
       </c>
-      <c r="M43" s="1">
-        <v>0</v>
-      </c>
       <c r="N43" s="1">
         <v>0</v>
       </c>
       <c r="O43" s="1">
+        <v>0</v>
+      </c>
+      <c r="P43" s="1">
         <v>6.5</v>
       </c>
-      <c r="P43" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="1" t="s">
+      <c r="Q43" s="1">
+        <v>0</v>
+      </c>
+      <c r="R43" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="R43" s="1">
+      <c r="S43" s="1">
         <v>4.5</v>
       </c>
-      <c r="S43" s="1">
-        <v>0</v>
-      </c>
       <c r="T43" s="1">
+        <v>0</v>
+      </c>
+      <c r="U43" s="1">
         <v>7</v>
       </c>
-      <c r="U43" s="1" t="s">
+      <c r="V43" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V43" s="1">
-        <v>2</v>
-      </c>
       <c r="W43" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X43" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y43" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="1">
         <v>5.5</v>
       </c>
-      <c r="AA43" s="1">
+      <c r="AB43" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>63</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="1">
         <v>5.5</v>
       </c>
-      <c r="D44" s="1">
+      <c r="E44" s="1">
         <v>9</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F44" s="1">
-        <v>0</v>
-      </c>
       <c r="G44" s="1">
-        <v>3</v>
-      </c>
-      <c r="H44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1">
+        <v>3</v>
+      </c>
+      <c r="I44" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I44" s="1">
-        <v>0</v>
-      </c>
       <c r="J44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" s="1">
         <v>1</v>
       </c>
       <c r="L44" s="1">
+        <v>1</v>
+      </c>
+      <c r="M44" s="1">
         <v>6.5</v>
       </c>
-      <c r="M44" s="1">
-        <v>0</v>
-      </c>
       <c r="N44" s="1">
         <v>0</v>
       </c>
       <c r="O44" s="1">
+        <v>0</v>
+      </c>
+      <c r="P44" s="1">
         <v>6.5</v>
       </c>
-      <c r="P44" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q44" s="1" t="s">
+      <c r="Q44" s="1">
+        <v>3</v>
+      </c>
+      <c r="R44" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="R44" s="1">
+      <c r="S44" s="1">
         <v>4</v>
       </c>
-      <c r="S44" s="1">
-        <v>0</v>
-      </c>
       <c r="T44" s="1">
-        <v>1</v>
-      </c>
-      <c r="U44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U44" s="1">
+        <v>1</v>
+      </c>
+      <c r="V44" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="V44" s="1">
-        <v>1</v>
-      </c>
       <c r="W44" s="1">
+        <v>-1</v>
+      </c>
+      <c r="X44" s="1">
         <v>6.5</v>
       </c>
-      <c r="X44" s="1">
+      <c r="Y44" s="1">
         <v>5.5</v>
       </c>
-      <c r="Y44" s="1">
-        <v>2</v>
-      </c>
       <c r="Z44" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA44" s="1">
         <v>6.5</v>
       </c>
-      <c r="AA44" s="1">
+      <c r="AB44" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>64</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="1">
         <v>5.5</v>
       </c>
-      <c r="D45" s="1">
-        <v>0</v>
-      </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F45" s="1">
-        <v>2</v>
-      </c>
       <c r="G45" s="1">
-        <v>0</v>
-      </c>
-      <c r="H45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0</v>
+      </c>
+      <c r="I45" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I45" s="1">
-        <v>0</v>
-      </c>
       <c r="J45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" s="1">
         <v>0</v>
@@ -4427,73 +4584,76 @@
         <v>0</v>
       </c>
       <c r="O45" s="1">
+        <v>0</v>
+      </c>
+      <c r="P45" s="1">
         <v>6.5</v>
       </c>
-      <c r="P45" s="1">
-        <v>5</v>
-      </c>
-      <c r="Q45" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R45" s="1">
+      <c r="Q45" s="1">
+        <v>5</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S45" s="1">
         <v>5.5</v>
       </c>
-      <c r="S45" s="1">
-        <v>0</v>
-      </c>
       <c r="T45" s="1">
-        <v>10</v>
-      </c>
-      <c r="U45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U45" s="1">
+        <v>10</v>
+      </c>
+      <c r="V45" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V45" s="1">
-        <v>1</v>
-      </c>
       <c r="W45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X45" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Y45" s="1">
         <v>8</v>
       </c>
       <c r="Z45" s="1">
+        <v>8</v>
+      </c>
+      <c r="AA45" s="1">
         <v>9</v>
       </c>
-      <c r="AA45" s="1">
+      <c r="AB45" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>65</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C46" s="1">
-        <v>3</v>
+      <c r="C46" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D46" s="1">
+        <v>3</v>
+      </c>
+      <c r="E46" s="1">
         <v>2.5</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F46" s="1">
-        <v>0</v>
-      </c>
       <c r="G46" s="1">
-        <v>6</v>
-      </c>
-      <c r="H46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1">
+        <v>6</v>
+      </c>
+      <c r="I46" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I46" s="1">
-        <v>1</v>
-      </c>
       <c r="J46" s="1">
         <v>1</v>
       </c>
@@ -4501,290 +4661,299 @@
         <v>1</v>
       </c>
       <c r="L46" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M46" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N46" s="1">
         <v>0</v>
       </c>
       <c r="O46" s="1">
+        <v>0</v>
+      </c>
+      <c r="P46" s="1">
         <v>7.5</v>
       </c>
-      <c r="P46" s="1">
-        <v>6</v>
-      </c>
-      <c r="Q46" s="1" t="s">
+      <c r="Q46" s="1">
+        <v>6</v>
+      </c>
+      <c r="R46" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="R46" s="1">
-        <v>5</v>
-      </c>
       <c r="S46" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T46" s="1">
+        <v>0</v>
+      </c>
+      <c r="U46" s="1">
         <v>4.5</v>
       </c>
-      <c r="U46" s="1" t="s">
+      <c r="V46" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="V46" s="1">
+      <c r="W46" s="1">
         <v>-3</v>
       </c>
-      <c r="W46" s="1">
-        <v>6</v>
-      </c>
       <c r="X46" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y46" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z46" s="1">
         <v>0</v>
       </c>
       <c r="AA46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>66</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C47" s="1">
-        <v>6</v>
+      <c r="C47" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D47" s="1">
+        <v>6</v>
+      </c>
+      <c r="E47" s="1">
         <v>7</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F47" s="1">
-        <v>2</v>
-      </c>
       <c r="G47" s="1">
+        <v>2</v>
+      </c>
+      <c r="H47" s="1">
         <v>4.5</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="I47" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I47" s="1">
-        <v>1</v>
-      </c>
       <c r="J47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M47" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N47" s="1">
         <v>0</v>
       </c>
       <c r="O47" s="1">
+        <v>0</v>
+      </c>
+      <c r="P47" s="1">
         <v>6.5</v>
       </c>
-      <c r="P47" s="1">
+      <c r="Q47" s="1">
         <v>7</v>
       </c>
-      <c r="Q47" s="1" t="s">
+      <c r="R47" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="R47" s="1">
+      <c r="S47" s="1">
         <v>5.5</v>
       </c>
-      <c r="S47" s="1">
-        <v>0</v>
-      </c>
       <c r="T47" s="1">
-        <v>10</v>
-      </c>
-      <c r="U47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U47" s="1">
+        <v>10</v>
+      </c>
+      <c r="V47" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="V47" s="1">
+      <c r="W47" s="1">
         <v>-2</v>
       </c>
-      <c r="W47" s="1">
-        <v>0</v>
-      </c>
       <c r="X47" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="1">
         <v>8</v>
       </c>
-      <c r="Y47" s="1">
-        <v>0</v>
-      </c>
       <c r="Z47" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA47" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB47" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>67</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C48" s="1">
-        <v>6</v>
+      <c r="C48" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D48" s="1">
+        <v>6</v>
+      </c>
+      <c r="E48" s="1">
         <v>8</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F48" s="1">
-        <v>2</v>
-      </c>
       <c r="G48" s="1">
+        <v>2</v>
+      </c>
+      <c r="H48" s="1">
         <v>8</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="I48" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I48" s="1">
-        <v>1</v>
-      </c>
       <c r="J48" s="1">
         <v>1</v>
       </c>
       <c r="K48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M48" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N48" s="1">
         <v>0</v>
       </c>
       <c r="O48" s="1">
+        <v>0</v>
+      </c>
+      <c r="P48" s="1">
         <v>8</v>
       </c>
-      <c r="P48" s="1">
+      <c r="Q48" s="1">
         <v>7</v>
       </c>
-      <c r="Q48" s="1" t="s">
+      <c r="R48" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="R48" s="1">
-        <v>6</v>
-      </c>
       <c r="S48" s="1">
+        <v>6</v>
+      </c>
+      <c r="T48" s="1">
         <v>2.5</v>
       </c>
-      <c r="T48" s="1">
-        <v>0</v>
-      </c>
-      <c r="U48" s="1" t="s">
+      <c r="U48" s="1">
+        <v>0</v>
+      </c>
+      <c r="V48" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V48" s="1">
-        <v>0</v>
-      </c>
       <c r="W48" s="1">
         <v>0</v>
       </c>
       <c r="X48" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y48" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z48" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AA48" s="1">
+        <v>10</v>
+      </c>
+      <c r="AB48" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>68</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C49" s="1">
-        <v>3</v>
+      <c r="C49" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D49" s="1">
         <v>3</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" s="1">
+        <v>3</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F49" s="1">
-        <v>0</v>
-      </c>
       <c r="G49" s="1">
-        <v>6</v>
-      </c>
-      <c r="H49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1">
+        <v>6</v>
+      </c>
+      <c r="I49" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I49" s="1">
-        <v>1</v>
-      </c>
       <c r="J49" s="1">
         <v>1</v>
       </c>
       <c r="K49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49" s="1">
+        <v>0</v>
+      </c>
+      <c r="M49" s="1">
         <v>8</v>
       </c>
-      <c r="M49" s="1">
-        <v>0</v>
-      </c>
       <c r="N49" s="1">
         <v>0</v>
       </c>
       <c r="O49" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P49" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q49" s="1">
         <v>8.5</v>
       </c>
-      <c r="Q49" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R49" s="1">
-        <v>6</v>
+      <c r="R49" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="S49" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T49" s="1">
-        <v>10</v>
-      </c>
-      <c r="U49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U49" s="1">
+        <v>10</v>
+      </c>
+      <c r="V49" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V49" s="1">
+      <c r="W49" s="1">
         <v>-3</v>
       </c>
-      <c r="W49" s="1">
-        <v>10</v>
-      </c>
       <c r="X49" s="1">
         <v>10</v>
       </c>
@@ -4795,37 +4964,40 @@
         <v>10</v>
       </c>
       <c r="AA49" s="1">
+        <v>10</v>
+      </c>
+      <c r="AB49" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>71</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C50" s="1">
-        <v>0</v>
+      <c r="C50" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D50" s="1">
         <v>0</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F50" s="1">
-        <v>0</v>
-      </c>
       <c r="G50" s="1">
         <v>0</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="H50" s="1">
+        <v>0</v>
+      </c>
+      <c r="I50" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I50" s="1">
-        <v>0</v>
-      </c>
       <c r="J50" s="1">
         <v>0</v>
       </c>
@@ -4836,162 +5008,168 @@
         <v>0</v>
       </c>
       <c r="M50" s="1">
+        <v>0</v>
+      </c>
+      <c r="N50" s="1">
+        <v>10</v>
+      </c>
+      <c r="O50" s="1">
+        <v>1</v>
+      </c>
+      <c r="P50" s="1">
         <v>4</v>
       </c>
-      <c r="N50" s="1">
-        <v>1</v>
-      </c>
-      <c r="O50" s="1">
+      <c r="Q50" s="1">
+        <v>10</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S50" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="T50" s="1">
+        <v>0</v>
+      </c>
+      <c r="U50" s="1">
+        <v>10</v>
+      </c>
+      <c r="V50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W50" s="1">
+        <v>5</v>
+      </c>
+      <c r="X50" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="1">
         <v>4</v>
       </c>
-      <c r="P50" s="1">
-        <v>10</v>
-      </c>
-      <c r="Q50" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R50" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="S50" s="1">
-        <v>0</v>
-      </c>
-      <c r="T50" s="1">
-        <v>10</v>
-      </c>
-      <c r="U50" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="V50" s="1">
-        <v>5</v>
-      </c>
-      <c r="W50" s="1">
-        <v>0</v>
-      </c>
-      <c r="X50" s="1">
-        <v>3</v>
-      </c>
-      <c r="Y50" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z50" s="1">
-        <v>4</v>
-      </c>
-      <c r="AA50" s="1">
+      <c r="AB50" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>72</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C51" s="1">
-        <v>0</v>
+      <c r="C51" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D51" s="1">
         <v>0</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F51" s="1">
-        <v>0</v>
-      </c>
       <c r="G51" s="1">
         <v>0</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="H51" s="1">
+        <v>0</v>
+      </c>
+      <c r="I51" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I51" s="1">
-        <v>0</v>
-      </c>
-      <c r="J51" s="1">
-        <v>0</v>
-      </c>
-      <c r="K51" s="1">
-        <v>0</v>
-      </c>
-      <c r="L51" s="1">
-        <v>0</v>
-      </c>
-      <c r="M51" s="1">
-        <v>5</v>
-      </c>
-      <c r="N51" s="1">
-        <v>1</v>
+      <c r="J51" s="8">
+        <v>0</v>
+      </c>
+      <c r="K51" s="8">
+        <v>0</v>
+      </c>
+      <c r="L51" s="8">
+        <v>0</v>
+      </c>
+      <c r="M51" s="8">
+        <v>0</v>
+      </c>
+      <c r="N51" s="8">
+        <v>0</v>
       </c>
       <c r="O51" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P51" s="1">
-        <v>10</v>
-      </c>
-      <c r="Q51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>10</v>
+      </c>
+      <c r="R51" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="R51" s="1">
+      <c r="S51" s="1">
         <v>3.5</v>
       </c>
-      <c r="S51" s="1">
-        <v>0</v>
-      </c>
       <c r="T51" s="1">
-        <v>10</v>
-      </c>
-      <c r="U51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U51" s="1">
+        <v>10</v>
+      </c>
+      <c r="V51" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V51" s="1">
-        <v>5</v>
-      </c>
       <c r="W51" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X51" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y51" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="1">
         <v>4</v>
       </c>
-      <c r="AA51" s="1">
+      <c r="AB51" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>73</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D52" s="1">
         <v>5.5</v>
       </c>
-      <c r="D52" s="1">
-        <v>5</v>
-      </c>
-      <c r="E52" s="1" t="s">
+      <c r="E52" s="1">
+        <v>5</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F52" s="1">
-        <v>0</v>
-      </c>
       <c r="G52" s="1">
         <v>0</v>
       </c>
-      <c r="H52" s="1" t="s">
+      <c r="H52" s="1">
+        <v>0</v>
+      </c>
+      <c r="I52" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I52" s="1">
-        <v>0</v>
-      </c>
       <c r="J52" s="1">
         <v>0</v>
       </c>
@@ -5002,162 +5180,168 @@
         <v>0</v>
       </c>
       <c r="M52" s="1">
+        <v>0</v>
+      </c>
+      <c r="N52" s="1">
+        <v>2</v>
+      </c>
+      <c r="O52" s="1">
+        <v>1</v>
+      </c>
+      <c r="P52" s="1">
         <v>3.5</v>
       </c>
-      <c r="N52" s="1">
-        <v>1</v>
-      </c>
-      <c r="O52" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="P52" s="1">
-        <v>10</v>
-      </c>
-      <c r="Q52" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R52" s="1">
+      <c r="Q52" s="1">
+        <v>10</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S52" s="1">
         <v>1.5</v>
       </c>
-      <c r="S52" s="1">
-        <v>2</v>
-      </c>
       <c r="T52" s="1">
-        <v>10</v>
-      </c>
-      <c r="U52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U52" s="1">
+        <v>10</v>
+      </c>
+      <c r="V52" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V52" s="1">
-        <v>3</v>
-      </c>
       <c r="W52" s="1">
         <v>3</v>
       </c>
       <c r="X52" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y52" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z52" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AA52" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB52" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>74</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53" s="1">
         <v>5.5</v>
       </c>
-      <c r="D53" s="1">
+      <c r="E53" s="1">
         <v>4</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="F53" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F53" s="1">
-        <v>0</v>
-      </c>
       <c r="G53" s="1">
         <v>0</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="H53" s="1">
+        <v>0</v>
+      </c>
+      <c r="I53" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I53" s="1">
-        <v>0</v>
-      </c>
-      <c r="J53" s="1">
-        <v>0</v>
-      </c>
-      <c r="K53" s="1">
-        <v>0</v>
-      </c>
-      <c r="L53" s="1">
-        <v>0</v>
-      </c>
-      <c r="M53" s="1">
+      <c r="J53" s="8">
+        <v>0</v>
+      </c>
+      <c r="K53" s="8">
+        <v>0</v>
+      </c>
+      <c r="L53" s="8">
+        <v>0</v>
+      </c>
+      <c r="M53" s="8">
+        <v>0</v>
+      </c>
+      <c r="N53" s="8">
+        <v>0</v>
+      </c>
+      <c r="O53" s="1">
+        <v>1</v>
+      </c>
+      <c r="P53" s="1">
         <v>3.5</v>
       </c>
-      <c r="N53" s="1">
-        <v>1</v>
-      </c>
-      <c r="O53" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="P53" s="1">
-        <v>10</v>
-      </c>
-      <c r="Q53" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R53" s="1">
-        <v>0</v>
+      <c r="Q53" s="1">
+        <v>10</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="S53" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T53" s="1">
-        <v>10</v>
-      </c>
-      <c r="U53" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U53" s="1">
+        <v>10</v>
+      </c>
+      <c r="V53" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V53" s="1">
-        <v>5</v>
-      </c>
       <c r="W53" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X53" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="1">
         <v>4</v>
       </c>
-      <c r="Y53" s="1">
+      <c r="Z53" s="1">
         <v>5.5</v>
       </c>
-      <c r="Z53" s="1">
+      <c r="AA53" s="1">
         <v>7</v>
       </c>
-      <c r="AA53" s="1">
+      <c r="AB53" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>75</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C54" s="1">
-        <v>6</v>
+      <c r="C54" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D54" s="1">
-        <v>0</v>
-      </c>
-      <c r="E54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F54" s="1">
-        <v>0</v>
-      </c>
       <c r="G54" s="1">
         <v>0</v>
       </c>
-      <c r="H54" s="1" t="s">
+      <c r="H54" s="1">
+        <v>0</v>
+      </c>
+      <c r="I54" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I54" s="1">
-        <v>0</v>
-      </c>
       <c r="J54" s="1">
         <v>0</v>
       </c>
@@ -5171,76 +5355,79 @@
         <v>0</v>
       </c>
       <c r="N54" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O54" s="1">
         <v>0</v>
       </c>
       <c r="P54" s="1">
-        <v>10</v>
-      </c>
-      <c r="Q54" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R54" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="1">
+        <v>10</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S54" s="1">
         <v>7</v>
       </c>
-      <c r="S54" s="1">
+      <c r="T54" s="1">
         <v>4</v>
       </c>
-      <c r="T54" s="1">
-        <v>10</v>
-      </c>
-      <c r="U54" s="1" t="s">
+      <c r="U54" s="1">
+        <v>10</v>
+      </c>
+      <c r="V54" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V54" s="1">
+      <c r="W54" s="1">
         <v>-1</v>
       </c>
-      <c r="W54" s="1">
-        <v>0</v>
-      </c>
       <c r="X54" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Y54" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Z54" s="1">
+        <v>10</v>
+      </c>
+      <c r="AA54" s="1">
         <v>8</v>
       </c>
-      <c r="AA54" s="1">
+      <c r="AB54" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>76</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C55" s="1">
-        <v>6</v>
+      <c r="C55" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D55" s="1">
-        <v>0</v>
-      </c>
-      <c r="E55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F55" s="1">
-        <v>0</v>
-      </c>
       <c r="G55" s="1">
         <v>0</v>
       </c>
-      <c r="H55" s="1" t="s">
+      <c r="H55" s="1">
+        <v>0</v>
+      </c>
+      <c r="I55" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I55" s="1">
-        <v>0</v>
-      </c>
       <c r="J55" s="1">
         <v>0</v>
       </c>
@@ -5251,79 +5438,82 @@
         <v>0</v>
       </c>
       <c r="M55" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N55" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O55" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P55" s="1">
-        <v>10</v>
-      </c>
-      <c r="Q55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q55" s="1">
+        <v>10</v>
+      </c>
+      <c r="R55" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="R55" s="1">
+      <c r="S55" s="1">
         <v>4</v>
       </c>
-      <c r="S55" s="1">
-        <v>0</v>
-      </c>
       <c r="T55" s="1">
-        <v>10</v>
-      </c>
-      <c r="U55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U55" s="1">
+        <v>10</v>
+      </c>
+      <c r="V55" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V55" s="1">
-        <v>0</v>
-      </c>
       <c r="W55" s="1">
         <v>0</v>
       </c>
       <c r="X55" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y55" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="1">
         <v>8</v>
       </c>
-      <c r="AA55" s="1">
+      <c r="AB55" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>77</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C56" s="1">
-        <v>0</v>
+      <c r="C56" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D56" s="1">
         <v>0</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E56" s="1">
+        <v>0</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F56" s="1">
-        <v>0</v>
-      </c>
       <c r="G56" s="1">
         <v>0</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="H56" s="1">
+        <v>0</v>
+      </c>
+      <c r="I56" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I56" s="1">
-        <v>0</v>
-      </c>
       <c r="J56" s="1">
         <v>0</v>
       </c>
@@ -5331,139 +5521,145 @@
         <v>0</v>
       </c>
       <c r="L56" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M56" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N56" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O56" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P56" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R56" s="1">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>0</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="S56" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="T56" s="1">
-        <v>10</v>
-      </c>
-      <c r="U56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U56" s="1">
+        <v>10</v>
+      </c>
+      <c r="V56" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V56" s="1">
+      <c r="W56" s="1">
         <v>4</v>
       </c>
-      <c r="W56" s="1">
-        <v>0</v>
-      </c>
       <c r="X56" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="1">
         <v>4</v>
       </c>
-      <c r="Y56" s="1">
-        <v>10</v>
-      </c>
       <c r="Z56" s="1">
+        <v>10</v>
+      </c>
+      <c r="AA56" s="1">
         <v>8</v>
       </c>
-      <c r="AA56" s="1">
+      <c r="AB56" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>78</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C57" s="1">
-        <v>0</v>
+      <c r="C57" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D57" s="1">
         <v>0</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E57" s="1">
+        <v>0</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F57" s="1">
-        <v>0</v>
-      </c>
       <c r="G57" s="1">
         <v>0</v>
       </c>
-      <c r="H57" s="1" t="s">
+      <c r="H57" s="1">
+        <v>0</v>
+      </c>
+      <c r="I57" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I57" s="1">
-        <v>0</v>
-      </c>
-      <c r="J57" s="1">
-        <v>0</v>
-      </c>
-      <c r="K57" s="1">
-        <v>0</v>
-      </c>
-      <c r="L57" s="1">
-        <v>0</v>
-      </c>
-      <c r="M57" s="1">
-        <v>2</v>
-      </c>
-      <c r="N57" s="1">
+      <c r="J57" s="8">
+        <v>0</v>
+      </c>
+      <c r="K57" s="8">
+        <v>0</v>
+      </c>
+      <c r="L57" s="8">
+        <v>0</v>
+      </c>
+      <c r="M57" s="8">
+        <v>0</v>
+      </c>
+      <c r="N57" s="8">
         <v>0</v>
       </c>
       <c r="O57" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P57" s="1">
-        <v>10</v>
-      </c>
-      <c r="Q57" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R57" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>10</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S57" s="1">
         <v>4</v>
       </c>
-      <c r="S57" s="1">
-        <v>2</v>
-      </c>
       <c r="T57" s="1">
-        <v>10</v>
-      </c>
-      <c r="U57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U57" s="1">
+        <v>10</v>
+      </c>
+      <c r="V57" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V57" s="1">
-        <v>1</v>
-      </c>
       <c r="W57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X57" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y57" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z57" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AA57" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB57" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AA57" xr:uid="{F3C0AD35-EBA0-4FCF-BBC0-5C497CCDE899}"/>
+  <autoFilter ref="A1:AB57" xr:uid="{F3C0AD35-EBA0-4FCF-BBC0-5C497CCDE899}"/>
   <hyperlinks>
     <hyperlink ref="B57" r:id="rId1" display="https://www.synthmania.com/Roland Juno-60/Audio/Factory presets group 1/78 Synthesizer Drum.mp3" xr:uid="{9636CD77-8484-489B-9D80-1CB24DA3CEB5}"/>
     <hyperlink ref="B56" r:id="rId2" display="https://www.synthmania.com/Roland Juno-60/Audio/Factory presets group 1/77 Surf.mp3" xr:uid="{B14B3E1D-C014-4DB1-ADAA-FFF744BB72A5}"/>

--- a/patches/Juno60.xlsx
+++ b/patches/Juno60.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\GitHub\junox\patches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61EF1C50-65B3-4D7E-B59F-AAF692E4DA81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E14239-3AF5-4177-9481-10FC951E50F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16284" yWindow="-5340" windowWidth="30936" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Bank A (from service manual)'!$A$1:$AB$57</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -333,7 +343,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -343,12 +353,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -396,7 +400,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -722,7 +726,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N1" sqref="N1"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5170,19 +5174,19 @@
       <c r="I52" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J52" s="1">
-        <v>0</v>
-      </c>
-      <c r="K52" s="1">
-        <v>0</v>
-      </c>
-      <c r="L52" s="1">
-        <v>0</v>
-      </c>
-      <c r="M52" s="1">
-        <v>0</v>
-      </c>
-      <c r="N52" s="1">
+      <c r="J52" s="8">
+        <v>0</v>
+      </c>
+      <c r="K52" s="8">
+        <v>0</v>
+      </c>
+      <c r="L52" s="8">
+        <v>0</v>
+      </c>
+      <c r="M52" s="8">
+        <v>0</v>
+      </c>
+      <c r="N52" s="8">
         <v>2</v>
       </c>
       <c r="O52" s="1">
@@ -5342,19 +5346,19 @@
       <c r="I54" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J54" s="1">
-        <v>0</v>
-      </c>
-      <c r="K54" s="1">
-        <v>0</v>
-      </c>
-      <c r="L54" s="1">
-        <v>0</v>
-      </c>
-      <c r="M54" s="1">
-        <v>0</v>
-      </c>
-      <c r="N54" s="1">
+      <c r="J54" s="8">
+        <v>0</v>
+      </c>
+      <c r="K54" s="8">
+        <v>0</v>
+      </c>
+      <c r="L54" s="8">
+        <v>0</v>
+      </c>
+      <c r="M54" s="8">
+        <v>0</v>
+      </c>
+      <c r="N54" s="8">
         <v>2</v>
       </c>
       <c r="O54" s="1">
@@ -5428,19 +5432,19 @@
       <c r="I55" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J55" s="1">
-        <v>0</v>
-      </c>
-      <c r="K55" s="1">
-        <v>0</v>
-      </c>
-      <c r="L55" s="1">
-        <v>0</v>
-      </c>
-      <c r="M55" s="1">
-        <v>0</v>
-      </c>
-      <c r="N55" s="1">
+      <c r="J55" s="8">
+        <v>0</v>
+      </c>
+      <c r="K55" s="8">
+        <v>0</v>
+      </c>
+      <c r="L55" s="8">
+        <v>0</v>
+      </c>
+      <c r="M55" s="8">
+        <v>0</v>
+      </c>
+      <c r="N55" s="8">
         <v>2</v>
       </c>
       <c r="O55" s="1">
@@ -5514,19 +5518,19 @@
       <c r="I56" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J56" s="1">
-        <v>0</v>
-      </c>
-      <c r="K56" s="1">
-        <v>0</v>
-      </c>
-      <c r="L56" s="1">
-        <v>0</v>
-      </c>
-      <c r="M56" s="1">
-        <v>10</v>
-      </c>
-      <c r="N56" s="1">
+      <c r="J56" s="8">
+        <v>0</v>
+      </c>
+      <c r="K56" s="8">
+        <v>0</v>
+      </c>
+      <c r="L56" s="8">
+        <v>0</v>
+      </c>
+      <c r="M56" s="8">
+        <v>10</v>
+      </c>
+      <c r="N56" s="8">
         <v>10</v>
       </c>
       <c r="O56" s="1">
